--- a/2019贺卡发送名单随意修改文件.xlsx
+++ b/2019贺卡发送名单随意修改文件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1550">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1985,6 +1985,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>FGL20</t>
     </r>
     <r>
@@ -2082,45 +2088,6 @@
   </si>
   <si>
     <t>Prof.Dr. Daniel PLUSQUELLEC &lt;daniel.plusquellec@ensc-rennes.fr&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FGL20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所学校</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际处或项目联系人</t>
-    </r>
   </si>
   <si>
     <t>richardblanchet2013 &lt;richardblanchet2013@gmail.com&gt;</t>
@@ -9843,10 +9810,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -9959,7 +9926,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -9973,15 +9940,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -9991,6 +9959,50 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10010,23 +10022,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10049,39 +10047,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10096,14 +10063,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10167,19 +10134,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10197,7 +10182,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10209,7 +10212,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10221,37 +10248,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10263,7 +10278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10275,37 +10296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10323,31 +10314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10669,6 +10636,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -10691,24 +10682,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10724,17 +10702,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10767,34 +10734,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10803,112 +10770,112 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12488,8 +12455,8 @@
   <sheetPr/>
   <dimension ref="A1:IT388"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="12" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView defaultGridColor="0" colorId="12" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="C392" sqref="C392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" customHeight="1"/>
@@ -16101,10 +16068,10 @@
         <v>304</v>
       </c>
       <c r="B149" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="C149" s="53" t="s">
         <v>332</v>
-      </c>
-      <c r="C149" s="53" t="s">
-        <v>333</v>
       </c>
       <c r="D149" s="22" t="str">
         <f ca="1">B149&amp;IFERROR("、"&amp;VLOOKUP(A149,A150:$D$388,4,0),"")</f>
@@ -16126,7 +16093,7 @@
         <v>304</v>
       </c>
       <c r="B150" s="58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C150" s="53"/>
       <c r="D150" s="22" t="str">
@@ -16148,7 +16115,7 @@
         <v>304</v>
       </c>
       <c r="B151" s="58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C151" s="53"/>
       <c r="D151" s="22" t="str">
@@ -16169,10 +16136,10 @@
         <v>304</v>
       </c>
       <c r="B152" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="C152" s="53" t="s">
         <v>336</v>
-      </c>
-      <c r="C152" s="53" t="s">
-        <v>337</v>
       </c>
       <c r="D152" s="22" t="str">
         <f ca="1">B152&amp;IFERROR("、"&amp;VLOOKUP(A152,A153:$D$388,4,0),"")</f>
@@ -16191,10 +16158,10 @@
         <v>304</v>
       </c>
       <c r="B153" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="C153" s="53" t="s">
         <v>338</v>
-      </c>
-      <c r="C153" s="53" t="s">
-        <v>339</v>
       </c>
       <c r="D153" s="22" t="str">
         <f ca="1">B153&amp;IFERROR("、"&amp;VLOOKUP(A153,A154:$D$388,4,0),"")</f>
@@ -16212,10 +16179,10 @@
         <v>304</v>
       </c>
       <c r="B154" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="C154" s="53" t="s">
         <v>340</v>
-      </c>
-      <c r="C154" s="53" t="s">
-        <v>341</v>
       </c>
       <c r="D154" s="22" t="str">
         <f ca="1">B154&amp;IFERROR("、"&amp;VLOOKUP(A154,A155:$D$388,4,0),"")</f>
@@ -16229,13 +16196,13 @@
     </row>
     <row r="155" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A155" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B155" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B155" s="21" t="s">
+      <c r="C155" s="24" t="s">
         <v>343</v>
-      </c>
-      <c r="C155" s="24" t="s">
-        <v>344</v>
       </c>
       <c r="D155" s="22" t="str">
         <f ca="1">B155&amp;IFERROR("、"&amp;VLOOKUP(A155,A156:$D$388,4,0),"")</f>
@@ -16248,13 +16215,13 @@
     </row>
     <row r="156" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A156" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B156" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B156" s="53" t="s">
+      <c r="C156" s="53" t="s">
         <v>346</v>
-      </c>
-      <c r="C156" s="53" t="s">
-        <v>347</v>
       </c>
       <c r="D156" s="22" t="str">
         <f ca="1">B156&amp;IFERROR("、"&amp;VLOOKUP(A156,A157:$D$388,4,0),"")</f>
@@ -16267,13 +16234,13 @@
     </row>
     <row r="157" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A157" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B157" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C157" s="53" t="s">
         <v>348</v>
-      </c>
-      <c r="C157" s="53" t="s">
-        <v>349</v>
       </c>
       <c r="D157" s="22" t="str">
         <f ca="1">B157&amp;IFERROR("、"&amp;VLOOKUP(A157,A158:$D$388,4,0),"")</f>
@@ -16286,13 +16253,13 @@
     </row>
     <row r="158" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A158" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B158" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C158" s="49" t="s">
         <v>350</v>
-      </c>
-      <c r="C158" s="49" t="s">
-        <v>351</v>
       </c>
       <c r="D158" s="22" t="str">
         <f ca="1">B158&amp;IFERROR("、"&amp;VLOOKUP(A158,A159:$D$388,4,0),"")</f>
@@ -16305,13 +16272,13 @@
     </row>
     <row r="159" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A159" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B159" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C159" s="49" t="s">
         <v>352</v>
-      </c>
-      <c r="C159" s="49" t="s">
-        <v>353</v>
       </c>
       <c r="D159" s="22" t="str">
         <f ca="1">B159&amp;IFERROR("、"&amp;VLOOKUP(A159,A160:$D$388,4,0),"")</f>
@@ -16324,13 +16291,13 @@
     </row>
     <row r="160" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A160" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B160" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="C160" s="49" t="s">
         <v>354</v>
-      </c>
-      <c r="C160" s="49" t="s">
-        <v>355</v>
       </c>
       <c r="D160" s="22" t="str">
         <f ca="1">B160&amp;IFERROR("、"&amp;VLOOKUP(A160,A161:$D$388,4,0),"")</f>
@@ -16343,13 +16310,13 @@
     </row>
     <row r="161" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A161" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B161" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="C161" s="49" t="s">
         <v>356</v>
-      </c>
-      <c r="C161" s="49" t="s">
-        <v>357</v>
       </c>
       <c r="D161" s="22" t="str">
         <f ca="1">B161&amp;IFERROR("、"&amp;VLOOKUP(A161,A162:$D$388,4,0),"")</f>
@@ -16362,13 +16329,13 @@
     </row>
     <row r="162" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A162" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B162" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="C162" s="49" t="s">
         <v>358</v>
-      </c>
-      <c r="C162" s="49" t="s">
-        <v>359</v>
       </c>
       <c r="D162" s="22" t="str">
         <f ca="1">B162&amp;IFERROR("、"&amp;VLOOKUP(A162,A163:$D$388,4,0),"")</f>
@@ -16381,13 +16348,13 @@
     </row>
     <row r="163" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A163" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B163" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="B163" s="49" t="s">
+      <c r="C163" s="49" t="s">
         <v>361</v>
-      </c>
-      <c r="C163" s="49" t="s">
-        <v>362</v>
       </c>
       <c r="D163" s="22" t="str">
         <f ca="1">B163&amp;IFERROR("、"&amp;VLOOKUP(A163,A164:$D$388,4,0),"")</f>
@@ -16400,13 +16367,13 @@
     </row>
     <row r="164" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A164" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B164" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="C164" s="49" t="s">
         <v>363</v>
-      </c>
-      <c r="C164" s="49" t="s">
-        <v>364</v>
       </c>
       <c r="D164" s="22" t="str">
         <f ca="1">B164&amp;IFERROR("、"&amp;VLOOKUP(A164,A165:$D$388,4,0),"")</f>
@@ -16419,13 +16386,13 @@
     </row>
     <row r="165" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A165" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B165" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="C165" s="49" t="s">
         <v>365</v>
-      </c>
-      <c r="C165" s="49" t="s">
-        <v>366</v>
       </c>
       <c r="D165" s="22" t="str">
         <f ca="1">B165&amp;IFERROR("、"&amp;VLOOKUP(A165,A166:$D$388,4,0),"")</f>
@@ -16438,13 +16405,13 @@
     </row>
     <row r="166" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A166" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B166" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="C166" s="49" t="s">
         <v>367</v>
-      </c>
-      <c r="C166" s="49" t="s">
-        <v>368</v>
       </c>
       <c r="D166" s="22" t="str">
         <f ca="1">B166&amp;IFERROR("、"&amp;VLOOKUP(A166,A167:$D$388,4,0),"")</f>
@@ -16457,13 +16424,13 @@
     </row>
     <row r="167" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A167" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B167" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="B167" s="49" t="s">
+      <c r="C167" s="49" t="s">
         <v>370</v>
-      </c>
-      <c r="C167" s="49" t="s">
-        <v>371</v>
       </c>
       <c r="D167" s="22" t="str">
         <f ca="1">B167&amp;IFERROR("、"&amp;VLOOKUP(A167,A168:$D$388,4,0),"")</f>
@@ -16476,13 +16443,13 @@
     </row>
     <row r="168" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A168" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B168" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="B168" s="49" t="s">
+      <c r="C168" s="49" t="s">
         <v>373</v>
-      </c>
-      <c r="C168" s="49" t="s">
-        <v>374</v>
       </c>
       <c r="D168" s="22" t="str">
         <f ca="1">B168&amp;IFERROR("、"&amp;VLOOKUP(A168,A169:$D$388,4,0),"")</f>
@@ -16495,13 +16462,13 @@
     </row>
     <row r="169" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A169" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B169" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="B169" s="49" t="s">
+      <c r="C169" s="49" t="s">
         <v>376</v>
-      </c>
-      <c r="C169" s="49" t="s">
-        <v>377</v>
       </c>
       <c r="D169" s="22" t="str">
         <f ca="1">B169&amp;IFERROR("、"&amp;VLOOKUP(A169,A170:$D$388,4,0),"")</f>
@@ -16514,13 +16481,13 @@
     </row>
     <row r="170" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A170" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B170" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="B170" s="49" t="s">
+      <c r="C170" s="49" t="s">
         <v>379</v>
-      </c>
-      <c r="C170" s="49" t="s">
-        <v>380</v>
       </c>
       <c r="D170" s="22" t="str">
         <f ca="1">B170&amp;IFERROR("、"&amp;VLOOKUP(A170,A171:$D$388,4,0),"")</f>
@@ -16533,13 +16500,13 @@
     </row>
     <row r="171" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A171" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B171" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="C171" s="49" t="s">
         <v>381</v>
-      </c>
-      <c r="C171" s="49" t="s">
-        <v>382</v>
       </c>
       <c r="D171" s="22" t="str">
         <f ca="1">B171&amp;IFERROR("、"&amp;VLOOKUP(A171,A172:$D$388,4,0),"")</f>
@@ -16552,13 +16519,13 @@
     </row>
     <row r="172" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A172" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B172" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="C172" s="49" t="s">
         <v>383</v>
-      </c>
-      <c r="C172" s="49" t="s">
-        <v>384</v>
       </c>
       <c r="D172" s="22" t="str">
         <f ca="1">B172&amp;IFERROR("、"&amp;VLOOKUP(A172,A173:$D$388,4,0),"")</f>
@@ -16571,13 +16538,13 @@
     </row>
     <row r="173" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A173" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B173" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="C173" s="49" t="s">
         <v>385</v>
-      </c>
-      <c r="C173" s="49" t="s">
-        <v>386</v>
       </c>
       <c r="D173" s="22" t="str">
         <f ca="1">B173&amp;IFERROR("、"&amp;VLOOKUP(A173,A174:$D$388,4,0),"")</f>
@@ -16590,13 +16557,13 @@
     </row>
     <row r="174" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A174" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B174" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="B174" s="49" t="s">
+      <c r="C174" s="49" t="s">
         <v>388</v>
-      </c>
-      <c r="C174" s="49" t="s">
-        <v>389</v>
       </c>
       <c r="D174" s="22" t="str">
         <f ca="1">B174&amp;IFERROR("、"&amp;VLOOKUP(A174,A175:$D$388,4,0),"")</f>
@@ -16609,13 +16576,13 @@
     </row>
     <row r="175" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A175" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B175" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="C175" s="49" t="s">
         <v>390</v>
-      </c>
-      <c r="C175" s="49" t="s">
-        <v>391</v>
       </c>
       <c r="D175" s="22" t="str">
         <f ca="1">B175&amp;IFERROR("、"&amp;VLOOKUP(A175,A176:$D$388,4,0),"")</f>
@@ -16628,13 +16595,13 @@
     </row>
     <row r="176" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A176" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B176" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="B176" s="49" t="s">
+      <c r="C176" s="49" t="s">
         <v>393</v>
-      </c>
-      <c r="C176" s="49" t="s">
-        <v>394</v>
       </c>
       <c r="D176" s="22" t="str">
         <f ca="1">B176&amp;IFERROR("、"&amp;VLOOKUP(A176,A177:$D$388,4,0),"")</f>
@@ -16647,13 +16614,13 @@
     </row>
     <row r="177" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A177" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B177" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="C177" s="49" t="s">
         <v>395</v>
-      </c>
-      <c r="C177" s="49" t="s">
-        <v>396</v>
       </c>
       <c r="D177" s="22" t="str">
         <f ca="1">B177&amp;IFERROR("、"&amp;VLOOKUP(A177,A178:$D$388,4,0),"")</f>
@@ -16666,13 +16633,13 @@
     </row>
     <row r="178" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A178" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B178" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="B178" s="49" t="s">
+      <c r="C178" s="49" t="s">
         <v>398</v>
-      </c>
-      <c r="C178" s="49" t="s">
-        <v>399</v>
       </c>
       <c r="D178" s="22" t="str">
         <f ca="1">B178&amp;IFERROR("、"&amp;VLOOKUP(A178,A179:$D$388,4,0),"")</f>
@@ -16685,13 +16652,13 @@
     </row>
     <row r="179" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A179" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B179" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="B179" s="49" t="s">
+      <c r="C179" s="49" t="s">
         <v>401</v>
-      </c>
-      <c r="C179" s="49" t="s">
-        <v>402</v>
       </c>
       <c r="D179" s="22" t="str">
         <f ca="1">B179&amp;IFERROR("、"&amp;VLOOKUP(A179,A180:$D$388,4,0),"")</f>
@@ -16704,13 +16671,13 @@
     </row>
     <row r="180" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A180" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="B180" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="B180" s="49" t="s">
+      <c r="C180" s="49" t="s">
         <v>404</v>
-      </c>
-      <c r="C180" s="49" t="s">
-        <v>405</v>
       </c>
       <c r="D180" s="22" t="str">
         <f ca="1">B180&amp;IFERROR("、"&amp;VLOOKUP(A180,A181:$D$388,4,0),"")</f>
@@ -16723,13 +16690,13 @@
     </row>
     <row r="181" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A181" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="B181" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="B181" s="49" t="s">
+      <c r="C181" s="49" t="s">
         <v>407</v>
-      </c>
-      <c r="C181" s="49" t="s">
-        <v>408</v>
       </c>
       <c r="D181" s="22" t="str">
         <f ca="1">B181&amp;IFERROR("、"&amp;VLOOKUP(A181,A182:$D$388,4,0),"")</f>
@@ -16742,13 +16709,13 @@
     </row>
     <row r="182" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A182" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B182" s="49" t="s">
         <v>409</v>
       </c>
-      <c r="B182" s="49" t="s">
+      <c r="C182" s="49" t="s">
         <v>410</v>
-      </c>
-      <c r="C182" s="49" t="s">
-        <v>411</v>
       </c>
       <c r="D182" s="22" t="str">
         <f ca="1">B182&amp;IFERROR("、"&amp;VLOOKUP(A182,A183:$D$388,4,0),"")</f>
@@ -16761,13 +16728,13 @@
     </row>
     <row r="183" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A183" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B183" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="C183" s="49" t="s">
         <v>412</v>
-      </c>
-      <c r="C183" s="49" t="s">
-        <v>413</v>
       </c>
       <c r="D183" s="22" t="str">
         <f ca="1">B183&amp;IFERROR("、"&amp;VLOOKUP(A183,A184:$D$388,4,0),"")</f>
@@ -16780,13 +16747,13 @@
     </row>
     <row r="184" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A184" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B184" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="B184" s="49" t="s">
+      <c r="C184" s="49" t="s">
         <v>415</v>
-      </c>
-      <c r="C184" s="49" t="s">
-        <v>416</v>
       </c>
       <c r="D184" s="22" t="str">
         <f ca="1">B184&amp;IFERROR("、"&amp;VLOOKUP(A184,A185:$D$388,4,0),"")</f>
@@ -16799,13 +16766,13 @@
     </row>
     <row r="185" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A185" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="B185" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="B185" s="49" t="s">
+      <c r="C185" s="49" t="s">
         <v>418</v>
-      </c>
-      <c r="C185" s="49" t="s">
-        <v>419</v>
       </c>
       <c r="D185" s="22" t="str">
         <f ca="1">B185&amp;IFERROR("、"&amp;VLOOKUP(A185,A186:$D$388,4,0),"")</f>
@@ -16818,13 +16785,13 @@
     </row>
     <row r="186" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A186" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="B186" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="B186" s="49" t="s">
+      <c r="C186" s="49" t="s">
         <v>421</v>
-      </c>
-      <c r="C186" s="49" t="s">
-        <v>422</v>
       </c>
       <c r="D186" s="22" t="str">
         <f ca="1">B186&amp;IFERROR("、"&amp;VLOOKUP(A186,A187:$D$388,4,0),"")</f>
@@ -16837,13 +16804,13 @@
     </row>
     <row r="187" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A187" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="B187" s="49" t="s">
         <v>423</v>
       </c>
-      <c r="B187" s="49" t="s">
+      <c r="C187" s="49" t="s">
         <v>424</v>
-      </c>
-      <c r="C187" s="49" t="s">
-        <v>425</v>
       </c>
       <c r="D187" s="22" t="str">
         <f ca="1">B187&amp;IFERROR("、"&amp;VLOOKUP(A187,A188:$D$388,4,0),"")</f>
@@ -16856,13 +16823,13 @@
     </row>
     <row r="188" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A188" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="B188" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="B188" s="21" t="s">
+      <c r="C188" s="24" t="s">
         <v>427</v>
-      </c>
-      <c r="C188" s="24" t="s">
-        <v>428</v>
       </c>
       <c r="D188" s="22" t="str">
         <f ca="1">B188&amp;IFERROR("、"&amp;VLOOKUP(A188,A189:$D$388,4,0),"")</f>
@@ -16875,13 +16842,13 @@
     </row>
     <row r="189" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A189" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="B189" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="B189" s="21" t="s">
+      <c r="C189" s="24" t="s">
         <v>430</v>
-      </c>
-      <c r="C189" s="24" t="s">
-        <v>431</v>
       </c>
       <c r="D189" s="22" t="str">
         <f ca="1">B189&amp;IFERROR("、"&amp;VLOOKUP(A189,A190:$D$388,4,0),"")</f>
@@ -16894,13 +16861,13 @@
     </row>
     <row r="190" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A190" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B190" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D190" s="22" t="str">
         <f ca="1">B190&amp;IFERROR("、"&amp;VLOOKUP(A190,A191:$D$388,4,0),"")</f>
@@ -16913,13 +16880,13 @@
     </row>
     <row r="191" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A191" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B191" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="C191" s="24" t="s">
         <v>434</v>
-      </c>
-      <c r="C191" s="24" t="s">
-        <v>435</v>
       </c>
       <c r="D191" s="22" t="str">
         <f ca="1">B191&amp;IFERROR("、"&amp;VLOOKUP(A191,A192:$D$388,4,0),"")</f>
@@ -16932,13 +16899,13 @@
     </row>
     <row r="192" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A192" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B192" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C192" s="24" t="s">
         <v>436</v>
-      </c>
-      <c r="C192" s="24" t="s">
-        <v>437</v>
       </c>
       <c r="D192" s="22" t="str">
         <f ca="1">B192&amp;IFERROR("、"&amp;VLOOKUP(A192,A193:$D$388,4,0),"")</f>
@@ -16951,13 +16918,13 @@
     </row>
     <row r="193" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A193" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B193" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C193" s="24" t="s">
         <v>438</v>
-      </c>
-      <c r="C193" s="24" t="s">
-        <v>439</v>
       </c>
       <c r="D193" s="22" t="str">
         <f ca="1">B193&amp;IFERROR("、"&amp;VLOOKUP(A193,A194:$D$388,4,0),"")</f>
@@ -16970,13 +16937,13 @@
     </row>
     <row r="194" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A194" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B194" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="C194" s="24" t="s">
         <v>440</v>
-      </c>
-      <c r="C194" s="24" t="s">
-        <v>441</v>
       </c>
       <c r="D194" s="22" t="str">
         <f ca="1">B194&amp;IFERROR("、"&amp;VLOOKUP(A194,A195:$D$388,4,0),"")</f>
@@ -16989,13 +16956,13 @@
     </row>
     <row r="195" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A195" s="62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B195" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D195" s="22" t="str">
         <f ca="1">B195&amp;IFERROR("、"&amp;VLOOKUP(A195,A196:$D$388,4,0),"")</f>
@@ -17008,13 +16975,13 @@
     </row>
     <row r="196" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A196" s="62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B196" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D196" s="22" t="str">
         <f ca="1">B196&amp;IFERROR("、"&amp;VLOOKUP(A196,A197:$D$388,4,0),"")</f>
@@ -17027,13 +16994,13 @@
     </row>
     <row r="197" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A197" s="62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B197" s="62" t="s">
         <v>19</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D197" s="22" t="str">
         <f ca="1">B197&amp;IFERROR("、"&amp;VLOOKUP(A197,A198:$D$388,4,0),"")</f>
@@ -17046,13 +17013,13 @@
     </row>
     <row r="198" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A198" s="62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B198" s="62" t="s">
         <v>19</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D198" s="22" t="str">
         <f ca="1">B198&amp;IFERROR("、"&amp;VLOOKUP(A198,A199:$D$388,4,0),"")</f>
@@ -17065,13 +17032,13 @@
     </row>
     <row r="199" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A199" s="62" t="s">
+        <v>449</v>
+      </c>
+      <c r="B199" s="62" t="s">
         <v>450</v>
       </c>
-      <c r="B199" s="62" t="s">
+      <c r="C199" s="24" t="s">
         <v>451</v>
-      </c>
-      <c r="C199" s="24" t="s">
-        <v>452</v>
       </c>
       <c r="D199" s="22" t="str">
         <f ca="1">B199&amp;IFERROR("、"&amp;VLOOKUP(A199,A200:$D$388,4,0),"")</f>
@@ -17084,13 +17051,13 @@
     </row>
     <row r="200" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A200" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="B200" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="B200" s="62" t="s">
+      <c r="C200" s="24" t="s">
         <v>454</v>
-      </c>
-      <c r="C200" s="24" t="s">
-        <v>455</v>
       </c>
       <c r="D200" s="22" t="str">
         <f ca="1">B200&amp;IFERROR("、"&amp;VLOOKUP(A200,A201:$D$388,4,0),"")</f>
@@ -17103,13 +17070,13 @@
     </row>
     <row r="201" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A201" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="B201" s="62" t="s">
         <v>456</v>
       </c>
-      <c r="B201" s="62" t="s">
+      <c r="C201" s="24" t="s">
         <v>457</v>
-      </c>
-      <c r="C201" s="24" t="s">
-        <v>458</v>
       </c>
       <c r="D201" s="22" t="str">
         <f ca="1">B201&amp;IFERROR("、"&amp;VLOOKUP(A201,A202:$D$388,4,0),"")</f>
@@ -17122,13 +17089,13 @@
     </row>
     <row r="202" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A202" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="B202" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="B202" s="62" t="s">
+      <c r="C202" s="24" t="s">
         <v>460</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>461</v>
       </c>
       <c r="D202" s="22" t="str">
         <f ca="1">B202&amp;IFERROR("、"&amp;VLOOKUP(A202,A203:$D$388,4,0),"")</f>
@@ -17141,13 +17108,13 @@
     </row>
     <row r="203" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A203" s="62" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B203" s="62" t="s">
         <v>19</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D203" s="22" t="str">
         <f ca="1">B203&amp;IFERROR("、"&amp;VLOOKUP(A203,A204:$D$388,4,0),"")</f>
@@ -17160,13 +17127,13 @@
     </row>
     <row r="204" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A204" s="63" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B204" s="62" t="s">
         <v>19</v>
       </c>
       <c r="C204" s="64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D204" s="22" t="str">
         <f ca="1">B204&amp;IFERROR("、"&amp;VLOOKUP(A204,A205:$D$388,4,0),"")</f>
@@ -17179,13 +17146,13 @@
     </row>
     <row r="205" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A205" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B205" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="C205" s="64" t="s">
         <v>466</v>
-      </c>
-      <c r="C205" s="64" t="s">
-        <v>467</v>
       </c>
       <c r="D205" s="22" t="str">
         <f ca="1">B205&amp;IFERROR("、"&amp;VLOOKUP(A205,A206:$D$388,4,0),"")</f>
@@ -17198,13 +17165,13 @@
     </row>
     <row r="206" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A206" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B206" s="62" t="s">
+        <v>467</v>
+      </c>
+      <c r="C206" s="64" t="s">
         <v>468</v>
-      </c>
-      <c r="C206" s="64" t="s">
-        <v>469</v>
       </c>
       <c r="D206" s="22" t="str">
         <f ca="1">B206&amp;IFERROR("、"&amp;VLOOKUP(A206,A207:$D$388,4,0),"")</f>
@@ -17217,13 +17184,13 @@
     </row>
     <row r="207" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A207" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B207" s="62" t="s">
+        <v>469</v>
+      </c>
+      <c r="C207" s="64" t="s">
         <v>470</v>
-      </c>
-      <c r="C207" s="64" t="s">
-        <v>471</v>
       </c>
       <c r="D207" s="22" t="str">
         <f ca="1">B207&amp;IFERROR("、"&amp;VLOOKUP(A207,A208:$D$388,4,0),"")</f>
@@ -17236,13 +17203,13 @@
     </row>
     <row r="208" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A208" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B208" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="C208" s="64" t="s">
         <v>472</v>
-      </c>
-      <c r="C208" s="64" t="s">
-        <v>473</v>
       </c>
       <c r="D208" s="22" t="str">
         <f ca="1">B208&amp;IFERROR("、"&amp;VLOOKUP(A208,A209:$D$388,4,0),"")</f>
@@ -17255,13 +17222,13 @@
     </row>
     <row r="209" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A209" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B209" s="62" t="s">
+        <v>473</v>
+      </c>
+      <c r="C209" s="64" t="s">
         <v>474</v>
-      </c>
-      <c r="C209" s="64" t="s">
-        <v>475</v>
       </c>
       <c r="D209" s="22" t="str">
         <f ca="1">B209&amp;IFERROR("、"&amp;VLOOKUP(A209,A210:$D$388,4,0),"")</f>
@@ -17274,13 +17241,13 @@
     </row>
     <row r="210" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A210" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="B210" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="B210" s="62" t="s">
+      <c r="C210" s="64" t="s">
         <v>477</v>
-      </c>
-      <c r="C210" s="64" t="s">
-        <v>478</v>
       </c>
       <c r="D210" s="22" t="str">
         <f ca="1">B210&amp;IFERROR("、"&amp;VLOOKUP(A210,A211:$D$388,4,0),"")</f>
@@ -17293,13 +17260,13 @@
     </row>
     <row r="211" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A211" s="66" t="s">
+        <v>478</v>
+      </c>
+      <c r="B211" s="67" t="s">
         <v>479</v>
       </c>
-      <c r="B211" s="67" t="s">
+      <c r="C211" s="68" t="s">
         <v>480</v>
-      </c>
-      <c r="C211" s="68" t="s">
-        <v>481</v>
       </c>
       <c r="D211" s="22" t="str">
         <f ca="1">B211&amp;IFERROR("、"&amp;VLOOKUP(A211,A212:$D$388,4,0),"")</f>
@@ -17312,13 +17279,13 @@
     </row>
     <row r="212" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A212" s="69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B212" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="C212" s="68" t="s">
         <v>482</v>
-      </c>
-      <c r="C212" s="68" t="s">
-        <v>483</v>
       </c>
       <c r="D212" s="22" t="str">
         <f ca="1">B212&amp;IFERROR("、"&amp;VLOOKUP(A212,A213:$D$388,4,0),"")</f>
@@ -17331,13 +17298,13 @@
     </row>
     <row r="213" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A213" s="69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B213" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="C213" s="68" t="s">
         <v>484</v>
-      </c>
-      <c r="C213" s="68" t="s">
-        <v>485</v>
       </c>
       <c r="D213" s="22" t="str">
         <f ca="1">B213&amp;IFERROR("、"&amp;VLOOKUP(A213,A214:$D$388,4,0),"")</f>
@@ -17350,13 +17317,13 @@
     </row>
     <row r="214" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A214" s="69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B214" s="67" t="s">
+        <v>485</v>
+      </c>
+      <c r="C214" s="68" t="s">
         <v>486</v>
-      </c>
-      <c r="C214" s="68" t="s">
-        <v>487</v>
       </c>
       <c r="D214" s="22" t="str">
         <f ca="1">B214&amp;IFERROR("、"&amp;VLOOKUP(A214,A215:$D$388,4,0),"")</f>
@@ -17369,13 +17336,13 @@
     </row>
     <row r="215" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A215" s="69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B215" s="67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C215" s="68" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D215" s="22" t="str">
         <f ca="1">B215&amp;IFERROR("、"&amp;VLOOKUP(A215,A216:$D$388,4,0),"")</f>
@@ -17388,13 +17355,13 @@
     </row>
     <row r="216" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A216" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="B216" s="67" t="s">
         <v>489</v>
       </c>
-      <c r="B216" s="67" t="s">
+      <c r="C216" s="68" t="s">
         <v>490</v>
-      </c>
-      <c r="C216" s="68" t="s">
-        <v>491</v>
       </c>
       <c r="D216" s="22" t="str">
         <f ca="1">B216&amp;IFERROR("、"&amp;VLOOKUP(A216,A217:$D$388,4,0),"")</f>
@@ -17407,13 +17374,13 @@
     </row>
     <row r="217" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A217" s="69" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B217" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="C217" s="68" t="s">
         <v>492</v>
-      </c>
-      <c r="C217" s="68" t="s">
-        <v>493</v>
       </c>
       <c r="D217" s="22" t="str">
         <f ca="1">B217&amp;IFERROR("、"&amp;VLOOKUP(A217,A218:$D$388,4,0),"")</f>
@@ -17426,13 +17393,13 @@
     </row>
     <row r="218" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A218" s="69" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B218" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="C218" s="68" t="s">
         <v>494</v>
-      </c>
-      <c r="C218" s="68" t="s">
-        <v>495</v>
       </c>
       <c r="D218" s="22" t="str">
         <f ca="1">B218&amp;IFERROR("、"&amp;VLOOKUP(A218,A219:$D$388,4,0),"")</f>
@@ -17445,13 +17412,13 @@
     </row>
     <row r="219" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A219" s="69" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B219" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="C219" s="68" t="s">
         <v>496</v>
-      </c>
-      <c r="C219" s="68" t="s">
-        <v>497</v>
       </c>
       <c r="D219" s="22" t="str">
         <f ca="1">B219&amp;IFERROR("、"&amp;VLOOKUP(A219,A220:$D$388,4,0),"")</f>
@@ -17464,13 +17431,13 @@
     </row>
     <row r="220" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A220" s="69" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B220" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="C220" s="68" t="s">
         <v>498</v>
-      </c>
-      <c r="C220" s="68" t="s">
-        <v>499</v>
       </c>
       <c r="D220" s="22" t="str">
         <f ca="1">B220&amp;IFERROR("、"&amp;VLOOKUP(A220,A221:$D$388,4,0),"")</f>
@@ -17483,13 +17450,13 @@
     </row>
     <row r="221" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A221" s="69" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B221" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="C221" s="68" t="s">
         <v>500</v>
-      </c>
-      <c r="C221" s="68" t="s">
-        <v>501</v>
       </c>
       <c r="D221" s="22" t="str">
         <f ca="1">B221&amp;IFERROR("、"&amp;VLOOKUP(A221,A222:$D$388,4,0),"")</f>
@@ -17502,13 +17469,13 @@
     </row>
     <row r="222" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A222" s="63" t="s">
+        <v>501</v>
+      </c>
+      <c r="B222" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="B222" s="62" t="s">
+      <c r="C222" s="64" t="s">
         <v>503</v>
-      </c>
-      <c r="C222" s="64" t="s">
-        <v>504</v>
       </c>
       <c r="D222" s="22" t="str">
         <f ca="1">B222&amp;IFERROR("、"&amp;VLOOKUP(A222,A223:$D$388,4,0),"")</f>
@@ -17521,13 +17488,13 @@
     </row>
     <row r="223" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A223" s="65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B223" s="62" t="s">
+        <v>504</v>
+      </c>
+      <c r="C223" s="64" t="s">
         <v>505</v>
-      </c>
-      <c r="C223" s="64" t="s">
-        <v>506</v>
       </c>
       <c r="D223" s="22" t="str">
         <f ca="1">B223&amp;IFERROR("、"&amp;VLOOKUP(A223,A224:$D$388,4,0),"")</f>
@@ -17540,13 +17507,13 @@
     </row>
     <row r="224" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A224" s="65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B224" s="62" t="s">
+        <v>506</v>
+      </c>
+      <c r="C224" s="64" t="s">
         <v>507</v>
-      </c>
-      <c r="C224" s="64" t="s">
-        <v>508</v>
       </c>
       <c r="D224" s="22" t="str">
         <f ca="1">B224&amp;IFERROR("、"&amp;VLOOKUP(A224,A225:$D$388,4,0),"")</f>
@@ -17559,13 +17526,13 @@
     </row>
     <row r="225" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A225" s="65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B225" s="62" t="s">
+        <v>508</v>
+      </c>
+      <c r="C225" s="64" t="s">
         <v>509</v>
-      </c>
-      <c r="C225" s="64" t="s">
-        <v>510</v>
       </c>
       <c r="D225" s="22" t="str">
         <f ca="1">B225&amp;IFERROR("、"&amp;VLOOKUP(A225,A226:$D$388,4,0),"")</f>
@@ -17578,13 +17545,13 @@
     </row>
     <row r="226" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A226" s="63" t="s">
+        <v>510</v>
+      </c>
+      <c r="B226" s="62" t="s">
         <v>511</v>
       </c>
-      <c r="B226" s="62" t="s">
+      <c r="C226" s="64" t="s">
         <v>512</v>
-      </c>
-      <c r="C226" s="64" t="s">
-        <v>513</v>
       </c>
       <c r="D226" s="22" t="str">
         <f ca="1">B226&amp;IFERROR("、"&amp;VLOOKUP(A226,A227:$D$388,4,0),"")</f>
@@ -17597,13 +17564,13 @@
     </row>
     <row r="227" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A227" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B227" s="62" t="s">
+        <v>513</v>
+      </c>
+      <c r="C227" s="64" t="s">
         <v>514</v>
-      </c>
-      <c r="C227" s="64" t="s">
-        <v>515</v>
       </c>
       <c r="D227" s="22" t="str">
         <f ca="1">B227&amp;IFERROR("、"&amp;VLOOKUP(A227,A228:$D$388,4,0),"")</f>
@@ -17616,13 +17583,13 @@
     </row>
     <row r="228" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A228" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B228" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="C228" s="64" t="s">
         <v>516</v>
-      </c>
-      <c r="C228" s="64" t="s">
-        <v>517</v>
       </c>
       <c r="D228" s="22" t="str">
         <f ca="1">B228&amp;IFERROR("、"&amp;VLOOKUP(A228,A229:$D$388,4,0),"")</f>
@@ -17635,13 +17602,13 @@
     </row>
     <row r="229" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A229" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B229" s="62" t="s">
+        <v>517</v>
+      </c>
+      <c r="C229" s="64" t="s">
         <v>518</v>
-      </c>
-      <c r="C229" s="64" t="s">
-        <v>519</v>
       </c>
       <c r="D229" s="22" t="str">
         <f ca="1">B229&amp;IFERROR("、"&amp;VLOOKUP(A229,A230:$D$388,4,0),"")</f>
@@ -17654,13 +17621,13 @@
     </row>
     <row r="230" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A230" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B230" s="62" t="s">
+        <v>519</v>
+      </c>
+      <c r="C230" s="64" t="s">
         <v>520</v>
-      </c>
-      <c r="C230" s="64" t="s">
-        <v>521</v>
       </c>
       <c r="D230" s="22" t="str">
         <f ca="1">B230&amp;IFERROR("、"&amp;VLOOKUP(A230,A231:$D$388,4,0),"")</f>
@@ -17673,13 +17640,13 @@
     </row>
     <row r="231" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A231" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B231" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="C231" s="64" t="s">
         <v>522</v>
-      </c>
-      <c r="C231" s="64" t="s">
-        <v>523</v>
       </c>
       <c r="D231" s="22" t="str">
         <f ca="1">B231&amp;IFERROR("、"&amp;VLOOKUP(A231,A232:$D$388,4,0),"")</f>
@@ -17692,13 +17659,13 @@
     </row>
     <row r="232" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A232" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="B232" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="B232" s="29" t="s">
+      <c r="C232" s="46" t="s">
         <v>525</v>
-      </c>
-      <c r="C232" s="46" t="s">
-        <v>526</v>
       </c>
       <c r="D232" s="22" t="str">
         <f ca="1">B232&amp;IFERROR("、"&amp;VLOOKUP(A232,A233:$D$388,4,0),"")</f>
@@ -17711,13 +17678,13 @@
     </row>
     <row r="233" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A233" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B233" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C233" s="53" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D233" s="22" t="str">
         <f ca="1">B233&amp;IFERROR("、"&amp;VLOOKUP(A233,A234:$D$388,4,0),"")</f>
@@ -17730,13 +17697,13 @@
     </row>
     <row r="234" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A234" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="B234" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="B234" s="29" t="s">
+      <c r="C234" s="46" t="s">
         <v>529</v>
-      </c>
-      <c r="C234" s="46" t="s">
-        <v>530</v>
       </c>
       <c r="D234" s="22" t="str">
         <f ca="1">B234&amp;IFERROR("、"&amp;VLOOKUP(A234,A235:$D$388,4,0),"")</f>
@@ -17749,13 +17716,13 @@
     </row>
     <row r="235" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A235" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B235" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="C235" s="46" t="s">
         <v>531</v>
-      </c>
-      <c r="C235" s="46" t="s">
-        <v>532</v>
       </c>
       <c r="D235" s="22" t="str">
         <f ca="1">B235&amp;IFERROR("、"&amp;VLOOKUP(A235,A236:$D$388,4,0),"")</f>
@@ -17768,13 +17735,13 @@
     </row>
     <row r="236" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A236" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B236" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="C236" s="46" t="s">
         <v>533</v>
-      </c>
-      <c r="C236" s="46" t="s">
-        <v>534</v>
       </c>
       <c r="D236" s="22" t="str">
         <f ca="1">B236&amp;IFERROR("、"&amp;VLOOKUP(A236,A237:$D$388,4,0),"")</f>
@@ -17787,13 +17754,13 @@
     </row>
     <row r="237" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A237" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B237" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="C237" s="46" t="s">
         <v>535</v>
-      </c>
-      <c r="C237" s="46" t="s">
-        <v>536</v>
       </c>
       <c r="D237" s="22" t="str">
         <f ca="1">B237&amp;IFERROR("、"&amp;VLOOKUP(A237,A238:$D$388,4,0),"")</f>
@@ -17806,13 +17773,13 @@
     </row>
     <row r="238" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A238" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="B238" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="B238" s="21" t="s">
+      <c r="C238" s="24" t="s">
         <v>538</v>
-      </c>
-      <c r="C238" s="24" t="s">
-        <v>539</v>
       </c>
       <c r="D238" s="22" t="str">
         <f ca="1">B238&amp;IFERROR("、"&amp;VLOOKUP(A238,A239:$D$388,4,0),"")</f>
@@ -17825,13 +17792,13 @@
     </row>
     <row r="239" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A239" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B239" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="C239" s="24" t="s">
         <v>540</v>
-      </c>
-      <c r="C239" s="24" t="s">
-        <v>541</v>
       </c>
       <c r="D239" s="22" t="str">
         <f ca="1">B239&amp;IFERROR("、"&amp;VLOOKUP(A239,A240:$D$388,4,0),"")</f>
@@ -17844,13 +17811,13 @@
     </row>
     <row r="240" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A240" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B240" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="C240" s="24" t="s">
         <v>542</v>
-      </c>
-      <c r="C240" s="24" t="s">
-        <v>543</v>
       </c>
       <c r="D240" s="22" t="str">
         <f ca="1">B240&amp;IFERROR("、"&amp;VLOOKUP(A240,A241:$D$388,4,0),"")</f>
@@ -17863,13 +17830,13 @@
     </row>
     <row r="241" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A241" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="B241" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="B241" s="21" t="s">
+      <c r="C241" s="24" t="s">
         <v>545</v>
-      </c>
-      <c r="C241" s="24" t="s">
-        <v>546</v>
       </c>
       <c r="D241" s="22" t="str">
         <f ca="1">B241&amp;IFERROR("、"&amp;VLOOKUP(A241,A242:$D$388,4,0),"")</f>
@@ -17882,13 +17849,13 @@
     </row>
     <row r="242" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A242" s="26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B242" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="C242" s="24" t="s">
         <v>547</v>
-      </c>
-      <c r="C242" s="24" t="s">
-        <v>548</v>
       </c>
       <c r="D242" s="22" t="str">
         <f ca="1">B242&amp;IFERROR("、"&amp;VLOOKUP(A242,A243:$D$388,4,0),"")</f>
@@ -17901,13 +17868,13 @@
     </row>
     <row r="243" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A243" s="70" t="s">
+        <v>548</v>
+      </c>
+      <c r="B243" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="B243" s="21" t="s">
+      <c r="C243" s="24" t="s">
         <v>550</v>
-      </c>
-      <c r="C243" s="24" t="s">
-        <v>551</v>
       </c>
       <c r="D243" s="22" t="str">
         <f ca="1">B243&amp;IFERROR("、"&amp;VLOOKUP(A243,A244:$D$388,4,0),"")</f>
@@ -17920,13 +17887,13 @@
     </row>
     <row r="244" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A244" s="71" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B244" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="C244" s="24" t="s">
         <v>552</v>
-      </c>
-      <c r="C244" s="24" t="s">
-        <v>553</v>
       </c>
       <c r="D244" s="22" t="str">
         <f ca="1">B244&amp;IFERROR("、"&amp;VLOOKUP(A244,A245:$D$388,4,0),"")</f>
@@ -17939,13 +17906,13 @@
     </row>
     <row r="245" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A245" s="71" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B245" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="C245" s="24" t="s">
         <v>554</v>
-      </c>
-      <c r="C245" s="24" t="s">
-        <v>555</v>
       </c>
       <c r="D245" s="22" t="str">
         <f ca="1">B245&amp;IFERROR("、"&amp;VLOOKUP(A245,A246:$D$388,4,0),"")</f>
@@ -17958,13 +17925,13 @@
     </row>
     <row r="246" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A246" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="B246" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="B246" s="21" t="s">
+      <c r="C246" s="49" t="s">
         <v>557</v>
-      </c>
-      <c r="C246" s="49" t="s">
-        <v>558</v>
       </c>
       <c r="D246" s="22" t="str">
         <f ca="1">B246&amp;IFERROR("、"&amp;VLOOKUP(A246,A247:$D$388,4,0),"")</f>
@@ -17977,13 +17944,13 @@
     </row>
     <row r="247" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A247" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B247" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="C247" s="24" t="s">
         <v>559</v>
-      </c>
-      <c r="C247" s="24" t="s">
-        <v>560</v>
       </c>
       <c r="D247" s="22" t="str">
         <f ca="1">B247&amp;IFERROR("、"&amp;VLOOKUP(A247,A248:$D$388,4,0),"")</f>
@@ -17996,13 +17963,13 @@
     </row>
     <row r="248" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A248" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B248" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C248" s="24" t="s">
         <v>561</v>
-      </c>
-      <c r="C248" s="24" t="s">
-        <v>562</v>
       </c>
       <c r="D248" s="22" t="str">
         <f ca="1">B248&amp;IFERROR("、"&amp;VLOOKUP(A248,A249:$D$388,4,0),"")</f>
@@ -18015,13 +17982,13 @@
     </row>
     <row r="249" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A249" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B249" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="C249" s="24" t="s">
         <v>563</v>
-      </c>
-      <c r="C249" s="24" t="s">
-        <v>564</v>
       </c>
       <c r="D249" s="22" t="str">
         <f ca="1">B249&amp;IFERROR("、"&amp;VLOOKUP(A249,A250:$D$388,4,0),"")</f>
@@ -18034,13 +18001,13 @@
     </row>
     <row r="250" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A250" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B250" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C250" s="24" t="s">
         <v>565</v>
-      </c>
-      <c r="C250" s="24" t="s">
-        <v>566</v>
       </c>
       <c r="D250" s="22" t="str">
         <f ca="1">B250&amp;IFERROR("、"&amp;VLOOKUP(A250,A251:$D$388,4,0),"")</f>
@@ -18053,13 +18020,13 @@
     </row>
     <row r="251" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A251" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="B251" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="B251" s="21" t="s">
+      <c r="C251" s="24" t="s">
         <v>568</v>
-      </c>
-      <c r="C251" s="24" t="s">
-        <v>569</v>
       </c>
       <c r="D251" s="22" t="str">
         <f ca="1">B251&amp;IFERROR("、"&amp;VLOOKUP(A251,A252:$D$388,4,0),"")</f>
@@ -18072,13 +18039,13 @@
     </row>
     <row r="252" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A252" s="51" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B252" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="C252" s="24" t="s">
         <v>570</v>
-      </c>
-      <c r="C252" s="24" t="s">
-        <v>571</v>
       </c>
       <c r="D252" s="22" t="str">
         <f ca="1">B252&amp;IFERROR("、"&amp;VLOOKUP(A252,A253:$D$388,4,0),"")</f>
@@ -18091,13 +18058,13 @@
     </row>
     <row r="253" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A253" s="51" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B253" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="C253" s="24" t="s">
         <v>572</v>
-      </c>
-      <c r="C253" s="24" t="s">
-        <v>573</v>
       </c>
       <c r="D253" s="22" t="str">
         <f ca="1">B253&amp;IFERROR("、"&amp;VLOOKUP(A253,A254:$D$388,4,0),"")</f>
@@ -18110,13 +18077,13 @@
     </row>
     <row r="254" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A254" s="51" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B254" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="C254" s="24" t="s">
         <v>574</v>
-      </c>
-      <c r="C254" s="24" t="s">
-        <v>575</v>
       </c>
       <c r="D254" s="22" t="str">
         <f ca="1">B254&amp;IFERROR("、"&amp;VLOOKUP(A254,A255:$D$388,4,0),"")</f>
@@ -18129,13 +18096,13 @@
     </row>
     <row r="255" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A255" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="B255" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="B255" s="21" t="s">
+      <c r="C255" s="24" t="s">
         <v>577</v>
-      </c>
-      <c r="C255" s="24" t="s">
-        <v>578</v>
       </c>
       <c r="D255" s="22" t="str">
         <f ca="1">B255&amp;IFERROR("、"&amp;VLOOKUP(A255,A256:$D$388,4,0),"")</f>
@@ -18148,13 +18115,13 @@
     </row>
     <row r="256" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A256" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B256" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="C256" s="24" t="s">
         <v>579</v>
-      </c>
-      <c r="C256" s="24" t="s">
-        <v>580</v>
       </c>
       <c r="D256" s="22" t="str">
         <f ca="1">B256&amp;IFERROR("、"&amp;VLOOKUP(A256,A257:$D$388,4,0),"")</f>
@@ -18167,13 +18134,13 @@
     </row>
     <row r="257" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A257" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B257" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="C257" s="24" t="s">
         <v>581</v>
-      </c>
-      <c r="C257" s="24" t="s">
-        <v>582</v>
       </c>
       <c r="D257" s="22" t="str">
         <f ca="1">B257&amp;IFERROR("、"&amp;VLOOKUP(A257,A258:$D$388,4,0),"")</f>
@@ -18186,13 +18153,13 @@
     </row>
     <row r="258" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A258" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B258" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="C258" s="24" t="s">
         <v>583</v>
-      </c>
-      <c r="C258" s="24" t="s">
-        <v>584</v>
       </c>
       <c r="D258" s="22" t="str">
         <f ca="1">B258&amp;IFERROR("、"&amp;VLOOKUP(A258,A259:$D$388,4,0),"")</f>
@@ -18205,13 +18172,13 @@
     </row>
     <row r="259" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A259" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B259" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="C259" s="24" t="s">
         <v>585</v>
-      </c>
-      <c r="C259" s="24" t="s">
-        <v>586</v>
       </c>
       <c r="D259" s="22" t="str">
         <f ca="1">B259&amp;IFERROR("、"&amp;VLOOKUP(A259,A260:$D$388,4,0),"")</f>
@@ -18224,13 +18191,13 @@
     </row>
     <row r="260" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A260" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="B260" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="B260" s="21" t="s">
+      <c r="C260" s="24" t="s">
         <v>588</v>
-      </c>
-      <c r="C260" s="24" t="s">
-        <v>589</v>
       </c>
       <c r="D260" s="22" t="str">
         <f ca="1">B260&amp;IFERROR("、"&amp;VLOOKUP(A260,A261:$D$388,4,0),"")</f>
@@ -18243,13 +18210,13 @@
     </row>
     <row r="261" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A261" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="B261" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="B261" s="21" t="s">
+      <c r="C261" s="24" t="s">
         <v>591</v>
-      </c>
-      <c r="C261" s="24" t="s">
-        <v>592</v>
       </c>
       <c r="D261" s="22" t="str">
         <f ca="1">B261&amp;IFERROR("、"&amp;VLOOKUP(A261,A262:$D$388,4,0),"")</f>
@@ -18262,13 +18229,13 @@
     </row>
     <row r="262" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A262" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B262" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="C262" s="24" t="s">
         <v>593</v>
-      </c>
-      <c r="C262" s="24" t="s">
-        <v>594</v>
       </c>
       <c r="D262" s="22" t="str">
         <f ca="1">B262&amp;IFERROR("、"&amp;VLOOKUP(A262,A263:$D$388,4,0),"")</f>
@@ -18281,13 +18248,13 @@
     </row>
     <row r="263" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A263" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B263" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="C263" s="24" t="s">
         <v>595</v>
-      </c>
-      <c r="C263" s="24" t="s">
-        <v>596</v>
       </c>
       <c r="D263" s="22" t="str">
         <f ca="1">B263&amp;IFERROR("、"&amp;VLOOKUP(A263,A264:$D$388,4,0),"")</f>
@@ -18300,13 +18267,13 @@
     </row>
     <row r="264" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A264" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B264" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="B264" s="21" t="s">
+      <c r="C264" s="24" t="s">
         <v>598</v>
-      </c>
-      <c r="C264" s="24" t="s">
-        <v>599</v>
       </c>
       <c r="D264" s="22" t="str">
         <f ca="1">B264&amp;IFERROR("、"&amp;VLOOKUP(A264,A265:$D$388,4,0),"")</f>
@@ -18319,13 +18286,13 @@
     </row>
     <row r="265" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A265" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B265" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="C265" s="24" t="s">
         <v>600</v>
-      </c>
-      <c r="C265" s="24" t="s">
-        <v>601</v>
       </c>
       <c r="D265" s="22" t="str">
         <f ca="1">B265&amp;IFERROR("、"&amp;VLOOKUP(A265,A266:$D$388,4,0),"")</f>
@@ -18338,13 +18305,13 @@
     </row>
     <row r="266" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A266" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="B266" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="B266" s="21" t="s">
+      <c r="C266" s="24" t="s">
         <v>603</v>
-      </c>
-      <c r="C266" s="24" t="s">
-        <v>604</v>
       </c>
       <c r="D266" s="22" t="str">
         <f ca="1">B266&amp;IFERROR("、"&amp;VLOOKUP(A266,A267:$D$388,4,0),"")</f>
@@ -18357,13 +18324,13 @@
     </row>
     <row r="267" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A267" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="B267" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="B267" s="21" t="s">
+      <c r="C267" s="24" t="s">
         <v>606</v>
-      </c>
-      <c r="C267" s="24" t="s">
-        <v>607</v>
       </c>
       <c r="D267" s="22" t="str">
         <f ca="1">B267&amp;IFERROR("、"&amp;VLOOKUP(A267,A268:$D$388,4,0),"")</f>
@@ -18376,13 +18343,13 @@
     </row>
     <row r="268" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A268" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B268" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="C268" s="24" t="s">
         <v>608</v>
-      </c>
-      <c r="C268" s="24" t="s">
-        <v>609</v>
       </c>
       <c r="D268" s="22" t="str">
         <f ca="1">B268&amp;IFERROR("、"&amp;VLOOKUP(A268,A269:$D$388,4,0),"")</f>
@@ -18395,13 +18362,13 @@
     </row>
     <row r="269" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A269" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B269" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C269" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D269" s="22" t="str">
         <f ca="1">B269&amp;IFERROR("、"&amp;VLOOKUP(A269,A270:$D$388,4,0),"")</f>
@@ -18414,13 +18381,13 @@
     </row>
     <row r="270" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A270" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B270" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C270" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D270" s="22" t="str">
         <f ca="1">B270&amp;IFERROR("、"&amp;VLOOKUP(A270,A271:$D$388,4,0),"")</f>
@@ -18433,13 +18400,13 @@
     </row>
     <row r="271" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A271" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B271" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C271" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D271" s="22" t="str">
         <f ca="1">B271&amp;IFERROR("、"&amp;VLOOKUP(A271,A272:$D$388,4,0),"")</f>
@@ -18452,13 +18419,13 @@
     </row>
     <row r="272" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A272" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="B272" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="B272" s="21" t="s">
+      <c r="C272" s="24" t="s">
         <v>617</v>
-      </c>
-      <c r="C272" s="24" t="s">
-        <v>618</v>
       </c>
       <c r="D272" s="22" t="str">
         <f ca="1">B272&amp;IFERROR("、"&amp;VLOOKUP(A272,A273:$D$388,4,0),"")</f>
@@ -18471,13 +18438,13 @@
     </row>
     <row r="273" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A273" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="B273" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="B273" s="21" t="s">
+      <c r="C273" s="24" t="s">
         <v>620</v>
-      </c>
-      <c r="C273" s="24" t="s">
-        <v>621</v>
       </c>
       <c r="D273" s="22" t="str">
         <f ca="1">B273&amp;IFERROR("、"&amp;VLOOKUP(A273,A274:$D$388,4,0),"")</f>
@@ -18490,13 +18457,13 @@
     </row>
     <row r="274" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A274" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B274" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C274" s="24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D274" s="22" t="str">
         <f ca="1">B274&amp;IFERROR("、"&amp;VLOOKUP(A274,A275:$D$388,4,0),"")</f>
@@ -18509,13 +18476,13 @@
     </row>
     <row r="275" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A275" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B275" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C275" s="24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D275" s="22" t="str">
         <f ca="1">B275&amp;IFERROR("、"&amp;VLOOKUP(A275,A276:$D$388,4,0),"")</f>
@@ -18528,13 +18495,13 @@
     </row>
     <row r="276" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A276" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B276" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C276" s="24" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D276" s="22" t="str">
         <f ca="1">B276&amp;IFERROR("、"&amp;VLOOKUP(A276,A277:$D$388,4,0),"")</f>
@@ -18547,13 +18514,13 @@
     </row>
     <row r="277" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A277" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B277" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C277" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D277" s="22" t="str">
         <f ca="1">B277&amp;IFERROR("、"&amp;VLOOKUP(A277,A278:$D$388,4,0),"")</f>
@@ -18566,13 +18533,13 @@
     </row>
     <row r="278" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A278" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B278" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C278" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D278" s="22" t="str">
         <f ca="1">B278&amp;IFERROR("、"&amp;VLOOKUP(A278,A279:$D$388,4,0),"")</f>
@@ -18585,13 +18552,13 @@
     </row>
     <row r="279" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A279" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B279" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C279" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D279" s="22" t="str">
         <f ca="1">B279&amp;IFERROR("、"&amp;VLOOKUP(A279,A280:$D$388,4,0),"")</f>
@@ -18604,13 +18571,13 @@
     </row>
     <row r="280" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A280" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="B280" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="B280" s="21" t="s">
+      <c r="C280" s="24" t="s">
         <v>635</v>
-      </c>
-      <c r="C280" s="24" t="s">
-        <v>636</v>
       </c>
       <c r="D280" s="22" t="str">
         <f ca="1">B280&amp;IFERROR("、"&amp;VLOOKUP(A280,A281:$D$388,4,0),"")</f>
@@ -18623,13 +18590,13 @@
     </row>
     <row r="281" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A281" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B281" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="C281" s="24" t="s">
         <v>637</v>
-      </c>
-      <c r="C281" s="24" t="s">
-        <v>638</v>
       </c>
       <c r="D281" s="22" t="str">
         <f ca="1">B281&amp;IFERROR("、"&amp;VLOOKUP(A281,A282:$D$388,4,0),"")</f>
@@ -18642,13 +18609,13 @@
     </row>
     <row r="282" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A282" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B282" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="C282" s="24" t="s">
         <v>639</v>
-      </c>
-      <c r="C282" s="24" t="s">
-        <v>640</v>
       </c>
       <c r="D282" s="22" t="str">
         <f ca="1">B282&amp;IFERROR("、"&amp;VLOOKUP(A282,A283:$D$388,4,0),"")</f>
@@ -18661,13 +18628,13 @@
     </row>
     <row r="283" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A283" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B283" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="C283" s="24" t="s">
         <v>641</v>
-      </c>
-      <c r="C283" s="24" t="s">
-        <v>642</v>
       </c>
       <c r="D283" s="22" t="str">
         <f ca="1">B283&amp;IFERROR("、"&amp;VLOOKUP(A283,A284:$D$388,4,0),"")</f>
@@ -18680,13 +18647,13 @@
     </row>
     <row r="284" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A284" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B284" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="C284" s="24" t="s">
         <v>643</v>
-      </c>
-      <c r="C284" s="24" t="s">
-        <v>644</v>
       </c>
       <c r="D284" s="22" t="str">
         <f ca="1">B284&amp;IFERROR("、"&amp;VLOOKUP(A284,A285:$D$388,4,0),"")</f>
@@ -18699,13 +18666,13 @@
     </row>
     <row r="285" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A285" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B285" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="C285" s="24" t="s">
         <v>645</v>
-      </c>
-      <c r="C285" s="24" t="s">
-        <v>646</v>
       </c>
       <c r="D285" s="22" t="str">
         <f ca="1">B285&amp;IFERROR("、"&amp;VLOOKUP(A285,A286:$D$388,4,0),"")</f>
@@ -18718,13 +18685,13 @@
     </row>
     <row r="286" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A286" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B286" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="C286" s="24" t="s">
         <v>647</v>
-      </c>
-      <c r="C286" s="24" t="s">
-        <v>648</v>
       </c>
       <c r="D286" s="22" t="str">
         <f ca="1">B286&amp;IFERROR("、"&amp;VLOOKUP(A286,A287:$D$388,4,0),"")</f>
@@ -18737,13 +18704,13 @@
     </row>
     <row r="287" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A287" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="B287" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="B287" s="21" t="s">
+      <c r="C287" s="24" t="s">
         <v>650</v>
-      </c>
-      <c r="C287" s="24" t="s">
-        <v>651</v>
       </c>
       <c r="D287" s="22" t="str">
         <f ca="1">B287&amp;IFERROR("、"&amp;VLOOKUP(A287,A288:$D$388,4,0),"")</f>
@@ -18756,13 +18723,13 @@
     </row>
     <row r="288" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A288" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B288" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="C288" s="24" t="s">
         <v>652</v>
-      </c>
-      <c r="C288" s="24" t="s">
-        <v>653</v>
       </c>
       <c r="D288" s="22" t="str">
         <f ca="1">B288&amp;IFERROR("、"&amp;VLOOKUP(A288,A289:$D$388,4,0),"")</f>
@@ -18775,13 +18742,13 @@
     </row>
     <row r="289" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A289" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B289" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="C289" s="24" t="s">
         <v>654</v>
-      </c>
-      <c r="C289" s="24" t="s">
-        <v>655</v>
       </c>
       <c r="D289" s="22" t="str">
         <f ca="1">B289&amp;IFERROR("、"&amp;VLOOKUP(A289,A290:$D$388,4,0),"")</f>
@@ -18794,13 +18761,13 @@
     </row>
     <row r="290" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A290" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B290" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="C290" s="24" t="s">
         <v>656</v>
-      </c>
-      <c r="C290" s="24" t="s">
-        <v>657</v>
       </c>
       <c r="D290" s="22" t="str">
         <f ca="1">B290&amp;IFERROR("、"&amp;VLOOKUP(A290,A291:$D$388,4,0),"")</f>
@@ -18813,13 +18780,13 @@
     </row>
     <row r="291" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A291" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B291" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="C291" s="24" t="s">
         <v>658</v>
-      </c>
-      <c r="C291" s="24" t="s">
-        <v>659</v>
       </c>
       <c r="D291" s="22" t="str">
         <f ca="1">B291&amp;IFERROR("、"&amp;VLOOKUP(A291,A292:$D$388,4,0),"")</f>
@@ -18832,13 +18799,13 @@
     </row>
     <row r="292" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A292" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B292" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="C292" s="24" t="s">
         <v>660</v>
-      </c>
-      <c r="C292" s="24" t="s">
-        <v>661</v>
       </c>
       <c r="D292" s="22" t="str">
         <f ca="1">B292&amp;IFERROR("、"&amp;VLOOKUP(A292,A293:$D$388,4,0),"")</f>
@@ -18851,13 +18818,13 @@
     </row>
     <row r="293" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A293" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B293" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="C293" s="24" t="s">
         <v>662</v>
-      </c>
-      <c r="C293" s="24" t="s">
-        <v>663</v>
       </c>
       <c r="D293" s="22" t="str">
         <f ca="1">B293&amp;IFERROR("、"&amp;VLOOKUP(A293,A294:$D$388,4,0),"")</f>
@@ -18870,13 +18837,13 @@
     </row>
     <row r="294" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A294" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B294" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="C294" s="24" t="s">
         <v>664</v>
-      </c>
-      <c r="C294" s="24" t="s">
-        <v>665</v>
       </c>
       <c r="D294" s="22" t="str">
         <f ca="1">B294&amp;IFERROR("、"&amp;VLOOKUP(A294,A295:$D$388,4,0),"")</f>
@@ -18889,13 +18856,13 @@
     </row>
     <row r="295" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A295" s="25" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B295" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D295" s="22" t="str">
         <f ca="1">B295&amp;IFERROR("、"&amp;VLOOKUP(A295,A296:$D$388,4,0),"")</f>
@@ -18908,13 +18875,13 @@
     </row>
     <row r="296" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A296" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B296" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="C296" s="24" t="s">
         <v>668</v>
-      </c>
-      <c r="C296" s="24" t="s">
-        <v>669</v>
       </c>
       <c r="D296" s="22" t="str">
         <f ca="1">B296&amp;IFERROR("、"&amp;VLOOKUP(A296,A297:$D$388,4,0),"")</f>
@@ -18927,13 +18894,13 @@
     </row>
     <row r="297" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A297" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B297" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="C297" s="24" t="s">
         <v>670</v>
-      </c>
-      <c r="C297" s="24" t="s">
-        <v>671</v>
       </c>
       <c r="D297" s="22" t="str">
         <f ca="1">B297&amp;IFERROR("、"&amp;VLOOKUP(A297,A298:$D$388,4,0),"")</f>
@@ -18946,13 +18913,13 @@
     </row>
     <row r="298" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A298" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B298" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="C298" s="24" t="s">
         <v>672</v>
-      </c>
-      <c r="C298" s="24" t="s">
-        <v>673</v>
       </c>
       <c r="D298" s="22" t="str">
         <f ca="1">B298&amp;IFERROR("、"&amp;VLOOKUP(A298,A299:$D$388,4,0),"")</f>
@@ -18965,13 +18932,13 @@
     </row>
     <row r="299" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A299" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B299" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="C299" s="24" t="s">
         <v>674</v>
-      </c>
-      <c r="C299" s="24" t="s">
-        <v>675</v>
       </c>
       <c r="D299" s="22" t="str">
         <f ca="1">B299&amp;IFERROR("、"&amp;VLOOKUP(A299,A300:$D$388,4,0),"")</f>
@@ -18984,13 +18951,13 @@
     </row>
     <row r="300" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A300" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B300" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="C300" s="24" t="s">
         <v>676</v>
-      </c>
-      <c r="C300" s="24" t="s">
-        <v>677</v>
       </c>
       <c r="D300" s="22" t="str">
         <f ca="1">B300&amp;IFERROR("、"&amp;VLOOKUP(A300,A301:$D$388,4,0),"")</f>
@@ -19003,13 +18970,13 @@
     </row>
     <row r="301" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A301" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B301" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="C301" s="24" t="s">
         <v>678</v>
-      </c>
-      <c r="C301" s="24" t="s">
-        <v>679</v>
       </c>
       <c r="D301" s="22" t="str">
         <f ca="1">B301&amp;IFERROR("、"&amp;VLOOKUP(A301,A302:$D$388,4,0),"")</f>
@@ -19022,13 +18989,13 @@
     </row>
     <row r="302" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A302" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="B302" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="B302" s="21" t="s">
+      <c r="C302" s="24" t="s">
         <v>681</v>
-      </c>
-      <c r="C302" s="24" t="s">
-        <v>682</v>
       </c>
       <c r="D302" s="22" t="str">
         <f ca="1">B302&amp;IFERROR("、"&amp;VLOOKUP(A302,A303:$D$388,4,0),"")</f>
@@ -19041,13 +19008,13 @@
     </row>
     <row r="303" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A303" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="B303" s="21" t="s">
         <v>683</v>
       </c>
-      <c r="B303" s="21" t="s">
+      <c r="C303" s="24" t="s">
         <v>684</v>
-      </c>
-      <c r="C303" s="24" t="s">
-        <v>685</v>
       </c>
       <c r="D303" s="22" t="str">
         <f ca="1">B303&amp;IFERROR("、"&amp;VLOOKUP(A303,A304:$D$388,4,0),"")</f>
@@ -19060,13 +19027,13 @@
     </row>
     <row r="304" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A304" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B304" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="C304" s="24" t="s">
         <v>686</v>
-      </c>
-      <c r="C304" s="24" t="s">
-        <v>687</v>
       </c>
       <c r="D304" s="22" t="str">
         <f ca="1">B304&amp;IFERROR("、"&amp;VLOOKUP(A304,A305:$D$388,4,0),"")</f>
@@ -19079,13 +19046,13 @@
     </row>
     <row r="305" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A305" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B305" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="C305" s="24" t="s">
         <v>688</v>
-      </c>
-      <c r="C305" s="24" t="s">
-        <v>689</v>
       </c>
       <c r="D305" s="22" t="str">
         <f ca="1">B305&amp;IFERROR("、"&amp;VLOOKUP(A305,A306:$D$388,4,0),"")</f>
@@ -19098,13 +19065,13 @@
     </row>
     <row r="306" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A306" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B306" s="21" t="s">
         <v>690</v>
       </c>
-      <c r="B306" s="21" t="s">
+      <c r="C306" s="24" t="s">
         <v>691</v>
-      </c>
-      <c r="C306" s="24" t="s">
-        <v>692</v>
       </c>
       <c r="D306" s="22" t="str">
         <f ca="1">B306&amp;IFERROR("、"&amp;VLOOKUP(A306,A307:$D$388,4,0),"")</f>
@@ -19117,13 +19084,13 @@
     </row>
     <row r="307" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A307" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B307" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="C307" s="24" t="s">
         <v>693</v>
-      </c>
-      <c r="C307" s="24" t="s">
-        <v>694</v>
       </c>
       <c r="D307" s="22" t="str">
         <f ca="1">B307&amp;IFERROR("、"&amp;VLOOKUP(A307,A308:$D$388,4,0),"")</f>
@@ -19136,13 +19103,13 @@
     </row>
     <row r="308" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A308" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C308" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D308" s="22" t="str">
         <f ca="1">B308&amp;IFERROR("、"&amp;VLOOKUP(A308,A309:$D$388,4,0),"")</f>
@@ -19155,13 +19122,13 @@
     </row>
     <row r="309" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A309" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B309" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="C309" s="24" t="s">
         <v>696</v>
-      </c>
-      <c r="C309" s="24" t="s">
-        <v>697</v>
       </c>
       <c r="D309" s="22" t="str">
         <f ca="1">B309&amp;IFERROR("、"&amp;VLOOKUP(A309,A310:$D$388,4,0),"")</f>
@@ -19174,13 +19141,13 @@
     </row>
     <row r="310" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A310" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B310" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="C310" s="24" t="s">
         <v>698</v>
-      </c>
-      <c r="C310" s="24" t="s">
-        <v>699</v>
       </c>
       <c r="D310" s="22" t="str">
         <f ca="1">B310&amp;IFERROR("、"&amp;VLOOKUP(A310,A311:$D$388,4,0),"")</f>
@@ -19193,13 +19160,13 @@
     </row>
     <row r="311" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A311" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B311" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="C311" s="24" t="s">
         <v>700</v>
-      </c>
-      <c r="C311" s="24" t="s">
-        <v>701</v>
       </c>
       <c r="D311" s="22" t="str">
         <f ca="1">B311&amp;IFERROR("、"&amp;VLOOKUP(A311,A312:$D$388,4,0),"")</f>
@@ -19212,13 +19179,13 @@
     </row>
     <row r="312" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A312" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B312" s="21" t="s">
+        <v>701</v>
+      </c>
+      <c r="C312" s="24" t="s">
         <v>702</v>
-      </c>
-      <c r="C312" s="24" t="s">
-        <v>703</v>
       </c>
       <c r="D312" s="22" t="str">
         <f ca="1">B312&amp;IFERROR("、"&amp;VLOOKUP(A312,A313:$D$388,4,0),"")</f>
@@ -19231,13 +19198,13 @@
     </row>
     <row r="313" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A313" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B313" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="C313" s="24" t="s">
         <v>704</v>
-      </c>
-      <c r="C313" s="24" t="s">
-        <v>705</v>
       </c>
       <c r="D313" s="22" t="str">
         <f ca="1">B313&amp;IFERROR("、"&amp;VLOOKUP(A313,A314:$D$388,4,0),"")</f>
@@ -19250,13 +19217,13 @@
     </row>
     <row r="314" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A314" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B314" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="C314" s="24" t="s">
         <v>706</v>
-      </c>
-      <c r="C314" s="24" t="s">
-        <v>707</v>
       </c>
       <c r="D314" s="22" t="str">
         <f ca="1">B314&amp;IFERROR("、"&amp;VLOOKUP(A314,A315:$D$388,4,0),"")</f>
@@ -19269,13 +19236,13 @@
     </row>
     <row r="315" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A315" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B315" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="C315" s="24" t="s">
         <v>708</v>
-      </c>
-      <c r="C315" s="24" t="s">
-        <v>709</v>
       </c>
       <c r="D315" s="22" t="str">
         <f ca="1">B315&amp;IFERROR("、"&amp;VLOOKUP(A315,A316:$D$388,4,0),"")</f>
@@ -19288,13 +19255,13 @@
     </row>
     <row r="316" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A316" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B316" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="C316" s="24" t="s">
         <v>710</v>
-      </c>
-      <c r="C316" s="24" t="s">
-        <v>711</v>
       </c>
       <c r="D316" s="22" t="str">
         <f ca="1">B316&amp;IFERROR("、"&amp;VLOOKUP(A316,A317:$D$388,4,0),"")</f>
@@ -19307,13 +19274,13 @@
     </row>
     <row r="317" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A317" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B317" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="C317" s="24" t="s">
         <v>712</v>
-      </c>
-      <c r="C317" s="24" t="s">
-        <v>713</v>
       </c>
       <c r="D317" s="22" t="str">
         <f ca="1">B317&amp;IFERROR("、"&amp;VLOOKUP(A317,A318:$D$388,4,0),"")</f>
@@ -19326,13 +19293,13 @@
     </row>
     <row r="318" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A318" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B318" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="C318" s="24" t="s">
         <v>714</v>
-      </c>
-      <c r="C318" s="24" t="s">
-        <v>715</v>
       </c>
       <c r="D318" s="22" t="str">
         <f ca="1">B318&amp;IFERROR("、"&amp;VLOOKUP(A318,A319:$D$388,4,0),"")</f>
@@ -19345,13 +19312,13 @@
     </row>
     <row r="319" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A319" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="B319" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="B319" s="21" t="s">
+      <c r="C319" s="24" t="s">
         <v>717</v>
-      </c>
-      <c r="C319" s="24" t="s">
-        <v>718</v>
       </c>
       <c r="D319" s="22" t="str">
         <f ca="1">B319&amp;IFERROR("、"&amp;VLOOKUP(A319,A320:$D$388,4,0),"")</f>
@@ -19364,13 +19331,13 @@
     </row>
     <row r="320" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A320" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B320" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="C320" s="24" t="s">
         <v>719</v>
-      </c>
-      <c r="C320" s="24" t="s">
-        <v>720</v>
       </c>
       <c r="D320" s="22" t="str">
         <f ca="1">B320&amp;IFERROR("、"&amp;VLOOKUP(A320,A321:$D$388,4,0),"")</f>
@@ -19383,13 +19350,13 @@
     </row>
     <row r="321" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A321" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B321" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="C321" s="24" t="s">
         <v>721</v>
-      </c>
-      <c r="C321" s="24" t="s">
-        <v>722</v>
       </c>
       <c r="D321" s="22" t="str">
         <f ca="1">B321&amp;IFERROR("、"&amp;VLOOKUP(A321,A322:$D$388,4,0),"")</f>
@@ -19402,13 +19369,13 @@
     </row>
     <row r="322" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A322" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B322" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="C322" s="24" t="s">
         <v>723</v>
-      </c>
-      <c r="C322" s="24" t="s">
-        <v>724</v>
       </c>
       <c r="D322" s="22" t="str">
         <f ca="1">B322&amp;IFERROR("、"&amp;VLOOKUP(A322,A323:$D$388,4,0),"")</f>
@@ -19421,13 +19388,13 @@
     </row>
     <row r="323" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A323" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B323" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="C323" s="24" t="s">
         <v>725</v>
-      </c>
-      <c r="C323" s="24" t="s">
-        <v>726</v>
       </c>
       <c r="D323" s="22" t="str">
         <f ca="1">B323&amp;IFERROR("、"&amp;VLOOKUP(A323,A324:$D$388,4,0),"")</f>
@@ -19440,13 +19407,13 @@
     </row>
     <row r="324" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A324" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B324" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="C324" s="24" t="s">
         <v>727</v>
-      </c>
-      <c r="C324" s="24" t="s">
-        <v>728</v>
       </c>
       <c r="D324" s="22" t="str">
         <f ca="1">B324&amp;IFERROR("、"&amp;VLOOKUP(A324,A325:$D$388,4,0),"")</f>
@@ -19459,13 +19426,13 @@
     </row>
     <row r="325" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A325" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B325" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="C325" s="24" t="s">
         <v>729</v>
-      </c>
-      <c r="C325" s="24" t="s">
-        <v>730</v>
       </c>
       <c r="D325" s="22" t="str">
         <f ca="1">B325&amp;IFERROR("、"&amp;VLOOKUP(A325,A326:$D$388,4,0),"")</f>
@@ -19478,13 +19445,13 @@
     </row>
     <row r="326" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A326" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B326" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="C326" s="24" t="s">
         <v>731</v>
-      </c>
-      <c r="C326" s="24" t="s">
-        <v>732</v>
       </c>
       <c r="D326" s="22" t="str">
         <f ca="1">B326&amp;IFERROR("、"&amp;VLOOKUP(A326,A327:$D$388,4,0),"")</f>
@@ -19497,13 +19464,13 @@
     </row>
     <row r="327" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A327" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B327" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="C327" s="24" t="s">
         <v>733</v>
-      </c>
-      <c r="C327" s="24" t="s">
-        <v>734</v>
       </c>
       <c r="D327" s="22" t="str">
         <f ca="1">B327&amp;IFERROR("、"&amp;VLOOKUP(A327,A328:$D$388,4,0),"")</f>
@@ -19516,13 +19483,13 @@
     </row>
     <row r="328" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A328" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="B328" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="B328" s="21" t="s">
+      <c r="C328" s="24" t="s">
         <v>736</v>
-      </c>
-      <c r="C328" s="24" t="s">
-        <v>737</v>
       </c>
       <c r="D328" s="22" t="str">
         <f ca="1">B328&amp;IFERROR("、"&amp;VLOOKUP(A328,A329:$D$388,4,0),"")</f>
@@ -19535,13 +19502,13 @@
     </row>
     <row r="329" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A329" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B329" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="B329" s="21" t="s">
+      <c r="C329" s="24" t="s">
         <v>739</v>
-      </c>
-      <c r="C329" s="24" t="s">
-        <v>740</v>
       </c>
       <c r="D329" s="22" t="str">
         <f ca="1">B329&amp;IFERROR("、"&amp;VLOOKUP(A329,A330:$D$388,4,0),"")</f>
@@ -19554,13 +19521,13 @@
     </row>
     <row r="330" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A330" s="26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B330" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C330" s="24" t="s">
         <v>741</v>
-      </c>
-      <c r="C330" s="24" t="s">
-        <v>742</v>
       </c>
       <c r="D330" s="22" t="str">
         <f ca="1">B330&amp;IFERROR("、"&amp;VLOOKUP(A330,A331:$D$388,4,0),"")</f>
@@ -19573,13 +19540,13 @@
     </row>
     <row r="331" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A331" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="B331" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="B331" s="21" t="s">
+      <c r="C331" s="24" t="s">
         <v>744</v>
-      </c>
-      <c r="C331" s="24" t="s">
-        <v>745</v>
       </c>
       <c r="D331" s="22" t="str">
         <f ca="1">B331&amp;IFERROR("、"&amp;VLOOKUP(A331,A332:$D$388,4,0),"")</f>
@@ -19592,13 +19559,13 @@
     </row>
     <row r="332" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A332" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="B332" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="B332" s="21" t="s">
+      <c r="C332" s="24" t="s">
         <v>747</v>
-      </c>
-      <c r="C332" s="24" t="s">
-        <v>748</v>
       </c>
       <c r="D332" s="22" t="str">
         <f ca="1">B332&amp;IFERROR("、"&amp;VLOOKUP(A332,A333:$D$388,4,0),"")</f>
@@ -19611,13 +19578,13 @@
     </row>
     <row r="333" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A333" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B333" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="C333" s="24" t="s">
         <v>749</v>
-      </c>
-      <c r="C333" s="24" t="s">
-        <v>750</v>
       </c>
       <c r="D333" s="22" t="str">
         <f ca="1">B333&amp;IFERROR("、"&amp;VLOOKUP(A333,A334:$D$388,4,0),"")</f>
@@ -19630,13 +19597,13 @@
     </row>
     <row r="334" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A334" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="B334" s="21" t="s">
         <v>751</v>
       </c>
-      <c r="B334" s="21" t="s">
+      <c r="C334" s="24" t="s">
         <v>752</v>
-      </c>
-      <c r="C334" s="24" t="s">
-        <v>753</v>
       </c>
       <c r="D334" s="22" t="str">
         <f ca="1">B334&amp;IFERROR("、"&amp;VLOOKUP(A334,A335:$D$388,4,0),"")</f>
@@ -19649,13 +19616,13 @@
     </row>
     <row r="335" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A335" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="B335" s="21" t="s">
         <v>754</v>
       </c>
-      <c r="B335" s="21" t="s">
+      <c r="C335" s="24" t="s">
         <v>755</v>
-      </c>
-      <c r="C335" s="24" t="s">
-        <v>756</v>
       </c>
       <c r="D335" s="22" t="str">
         <f ca="1">B335&amp;IFERROR("、"&amp;VLOOKUP(A335,A336:$D$388,4,0),"")</f>
@@ -19668,13 +19635,13 @@
     </row>
     <row r="336" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A336" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="B336" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="B336" s="21" t="s">
+      <c r="C336" s="24" t="s">
         <v>758</v>
-      </c>
-      <c r="C336" s="24" t="s">
-        <v>759</v>
       </c>
       <c r="D336" s="22" t="str">
         <f ca="1">B336&amp;IFERROR("、"&amp;VLOOKUP(A336,A337:$D$388,4,0),"")</f>
@@ -19687,13 +19654,13 @@
     </row>
     <row r="337" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A337" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="B337" s="21" t="s">
         <v>760</v>
       </c>
-      <c r="B337" s="21" t="s">
+      <c r="C337" s="24" t="s">
         <v>761</v>
-      </c>
-      <c r="C337" s="24" t="s">
-        <v>762</v>
       </c>
       <c r="D337" s="22" t="str">
         <f ca="1">B337&amp;IFERROR("、"&amp;VLOOKUP(A337,A338:$D$388,4,0),"")</f>
@@ -19706,13 +19673,13 @@
     </row>
     <row r="338" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A338" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B338" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C338" s="24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D338" s="22" t="str">
         <f ca="1">B338&amp;IFERROR("、"&amp;VLOOKUP(A338,A339:$D$388,4,0),"")</f>
@@ -19725,13 +19692,13 @@
     </row>
     <row r="339" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A339" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="B339" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="B339" s="21" t="s">
+      <c r="C339" s="24" t="s">
         <v>766</v>
-      </c>
-      <c r="C339" s="24" t="s">
-        <v>767</v>
       </c>
       <c r="D339" s="22" t="str">
         <f ca="1">B339&amp;IFERROR("、"&amp;VLOOKUP(A339,A340:$D$388,4,0),"")</f>
@@ -19744,13 +19711,13 @@
     </row>
     <row r="340" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A340" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B340" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C340" s="24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D340" s="22" t="str">
         <f ca="1">B340&amp;IFERROR("、"&amp;VLOOKUP(A340,A341:$D$388,4,0),"")</f>
@@ -19763,13 +19730,13 @@
     </row>
     <row r="341" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A341" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="B341" s="21" t="s">
         <v>770</v>
       </c>
-      <c r="B341" s="21" t="s">
+      <c r="C341" s="24" t="s">
         <v>771</v>
-      </c>
-      <c r="C341" s="24" t="s">
-        <v>772</v>
       </c>
       <c r="D341" s="22" t="str">
         <f ca="1">B341&amp;IFERROR("、"&amp;VLOOKUP(A341,A342:$D$388,4,0),"")</f>
@@ -19782,13 +19749,13 @@
     </row>
     <row r="342" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A342" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B342" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C342" s="24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D342" s="22" t="str">
         <f ca="1">B342&amp;IFERROR("、"&amp;VLOOKUP(A342,A343:$D$388,4,0),"")</f>
@@ -19801,13 +19768,13 @@
     </row>
     <row r="343" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A343" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B343" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C343" s="24" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D343" s="22" t="str">
         <f ca="1">B343&amp;IFERROR("、"&amp;VLOOKUP(A343,A344:$D$388,4,0),"")</f>
@@ -19820,13 +19787,13 @@
     </row>
     <row r="344" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A344" s="72" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B344" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C344" s="73" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D344" s="22" t="str">
         <f ca="1">B344&amp;IFERROR("、"&amp;VLOOKUP(A344,A345:$D$388,4,0),"")</f>
@@ -19839,13 +19806,13 @@
     </row>
     <row r="345" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A345" s="74" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B345" s="74" t="s">
         <v>30</v>
       </c>
       <c r="C345" s="75" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D345" s="22" t="str">
         <f ca="1">B345&amp;IFERROR("、"&amp;VLOOKUP(A345,A346:$D$388,4,0),"")</f>
@@ -19858,13 +19825,13 @@
     </row>
     <row r="346" s="17" customFormat="1" ht="17" customHeight="1" spans="1:5">
       <c r="A346" s="76" t="s">
+        <v>780</v>
+      </c>
+      <c r="B346" s="76" t="s">
         <v>781</v>
       </c>
-      <c r="B346" s="76" t="s">
+      <c r="C346" s="77" t="s">
         <v>782</v>
-      </c>
-      <c r="C346" s="77" t="s">
-        <v>783</v>
       </c>
       <c r="D346" s="22" t="str">
         <f ca="1">B346&amp;IFERROR("、"&amp;VLOOKUP(A346,A347:$D$388,4,0),"")</f>
@@ -19877,13 +19844,13 @@
     </row>
     <row r="347" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A347" s="78" t="s">
+        <v>783</v>
+      </c>
+      <c r="B347" s="78" t="s">
         <v>784</v>
       </c>
-      <c r="B347" s="78" t="s">
+      <c r="C347" s="78" t="s">
         <v>785</v>
-      </c>
-      <c r="C347" s="78" t="s">
-        <v>786</v>
       </c>
       <c r="D347" s="22" t="str">
         <f ca="1">B347&amp;IFERROR("、"&amp;VLOOKUP(A347,A348:$D$388,4,0),"")</f>
@@ -19896,13 +19863,13 @@
     </row>
     <row r="348" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A348" s="78" t="s">
+        <v>786</v>
+      </c>
+      <c r="B348" s="78" t="s">
         <v>787</v>
       </c>
-      <c r="B348" s="78" t="s">
+      <c r="C348" s="78" t="s">
         <v>788</v>
-      </c>
-      <c r="C348" s="78" t="s">
-        <v>789</v>
       </c>
       <c r="D348" s="22" t="str">
         <f ca="1">B348&amp;IFERROR("、"&amp;VLOOKUP(A348,A349:$D$388,4,0),"")</f>
@@ -19916,13 +19883,13 @@
     </row>
     <row r="349" s="17" customFormat="1" ht="29.5" customHeight="1" spans="1:5">
       <c r="A349" s="78" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B349" s="78" t="s">
+        <v>789</v>
+      </c>
+      <c r="C349" s="78" t="s">
         <v>790</v>
-      </c>
-      <c r="C349" s="78" t="s">
-        <v>791</v>
       </c>
       <c r="D349" s="22" t="str">
         <f ca="1">B349&amp;IFERROR("、"&amp;VLOOKUP(A349,A350:$D$388,4,0),"")</f>
@@ -19936,13 +19903,13 @@
     </row>
     <row r="350" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A350" s="78" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B350" s="78" t="s">
+        <v>791</v>
+      </c>
+      <c r="C350" s="78" t="s">
         <v>792</v>
-      </c>
-      <c r="C350" s="78" t="s">
-        <v>793</v>
       </c>
       <c r="D350" s="22" t="str">
         <f ca="1">B350&amp;IFERROR("、"&amp;VLOOKUP(A350,A351:$D$388,4,0),"")</f>
@@ -19955,13 +19922,13 @@
     </row>
     <row r="351" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A351" s="78" t="s">
+        <v>793</v>
+      </c>
+      <c r="B351" s="78" t="s">
         <v>794</v>
       </c>
-      <c r="B351" s="78" t="s">
+      <c r="C351" s="78" t="s">
         <v>795</v>
-      </c>
-      <c r="C351" s="78" t="s">
-        <v>796</v>
       </c>
       <c r="D351" s="22" t="str">
         <f ca="1">B351&amp;IFERROR("、"&amp;VLOOKUP(A351,A352:$D$388,4,0),"")</f>
@@ -19974,13 +19941,13 @@
     </row>
     <row r="352" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A352" s="78" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B352" s="78" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C352" s="78" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D352" s="22" t="str">
         <f ca="1">B352&amp;IFERROR("、"&amp;VLOOKUP(A352,A353:$D$388,4,0),"")</f>
@@ -19993,13 +19960,13 @@
     </row>
     <row r="353" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A353" s="78" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B353" s="78" t="s">
+        <v>797</v>
+      </c>
+      <c r="C353" s="78" t="s">
         <v>798</v>
-      </c>
-      <c r="C353" s="78" t="s">
-        <v>799</v>
       </c>
       <c r="D353" s="22" t="str">
         <f ca="1">B353&amp;IFERROR("、"&amp;VLOOKUP(A353,A354:$D$388,4,0),"")</f>
@@ -20012,13 +19979,13 @@
     </row>
     <row r="354" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A354" s="78" t="s">
+        <v>799</v>
+      </c>
+      <c r="B354" s="78" t="s">
         <v>800</v>
       </c>
-      <c r="B354" s="78" t="s">
+      <c r="C354" s="78" t="s">
         <v>801</v>
-      </c>
-      <c r="C354" s="78" t="s">
-        <v>802</v>
       </c>
       <c r="D354" s="22" t="str">
         <f ca="1">B354&amp;IFERROR("、"&amp;VLOOKUP(A354,A355:$D$388,4,0),"")</f>
@@ -20031,13 +19998,13 @@
     </row>
     <row r="355" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A355" s="78" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B355" s="78" t="s">
+        <v>802</v>
+      </c>
+      <c r="C355" s="78" t="s">
         <v>803</v>
-      </c>
-      <c r="C355" s="78" t="s">
-        <v>804</v>
       </c>
       <c r="D355" s="22" t="str">
         <f ca="1">B355&amp;IFERROR("、"&amp;VLOOKUP(A355,A356:$D$388,4,0),"")</f>
@@ -20050,13 +20017,13 @@
     </row>
     <row r="356" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A356" s="78" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B356" s="78" t="s">
+        <v>804</v>
+      </c>
+      <c r="C356" s="78" t="s">
         <v>805</v>
-      </c>
-      <c r="C356" s="78" t="s">
-        <v>806</v>
       </c>
       <c r="D356" s="22" t="str">
         <f ca="1">B356&amp;IFERROR("、"&amp;VLOOKUP(A356,A357:$D$388,4,0),"")</f>
@@ -20069,13 +20036,13 @@
     </row>
     <row r="357" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A357" s="78" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B357" s="78" t="s">
+        <v>806</v>
+      </c>
+      <c r="C357" s="78" t="s">
         <v>807</v>
-      </c>
-      <c r="C357" s="78" t="s">
-        <v>808</v>
       </c>
       <c r="D357" s="22" t="str">
         <f ca="1">B357&amp;IFERROR("、"&amp;VLOOKUP(A357,A358:$D$388,4,0),"")</f>
@@ -20088,13 +20055,13 @@
     </row>
     <row r="358" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A358" s="78" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B358" s="78" t="s">
+        <v>808</v>
+      </c>
+      <c r="C358" s="78" t="s">
         <v>809</v>
-      </c>
-      <c r="C358" s="78" t="s">
-        <v>810</v>
       </c>
       <c r="D358" s="22" t="str">
         <f ca="1">B358&amp;IFERROR("、"&amp;VLOOKUP(A358,A359:$D$388,4,0),"")</f>
@@ -20107,13 +20074,13 @@
     </row>
     <row r="359" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A359" s="78" t="s">
+        <v>810</v>
+      </c>
+      <c r="B359" s="78" t="s">
         <v>811</v>
       </c>
-      <c r="B359" s="78" t="s">
+      <c r="C359" s="78" t="s">
         <v>812</v>
-      </c>
-      <c r="C359" s="78" t="s">
-        <v>813</v>
       </c>
       <c r="D359" s="22" t="str">
         <f ca="1">B359&amp;IFERROR("、"&amp;VLOOKUP(A359,A360:$D$388,4,0),"")</f>
@@ -20126,13 +20093,13 @@
     </row>
     <row r="360" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A360" s="78" t="s">
+        <v>813</v>
+      </c>
+      <c r="B360" s="78" t="s">
         <v>814</v>
       </c>
-      <c r="B360" s="78" t="s">
+      <c r="C360" s="78" t="s">
         <v>815</v>
-      </c>
-      <c r="C360" s="78" t="s">
-        <v>816</v>
       </c>
       <c r="D360" s="22" t="str">
         <f ca="1">B360&amp;IFERROR("、"&amp;VLOOKUP(A360,A361:$D$388,4,0),"")</f>
@@ -20145,13 +20112,13 @@
     </row>
     <row r="361" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A361" s="79" t="s">
+        <v>816</v>
+      </c>
+      <c r="B361" s="78" t="s">
         <v>817</v>
       </c>
-      <c r="B361" s="78" t="s">
+      <c r="C361" s="78" t="s">
         <v>818</v>
-      </c>
-      <c r="C361" s="78" t="s">
-        <v>819</v>
       </c>
       <c r="D361" s="22" t="str">
         <f ca="1">B361&amp;IFERROR("、"&amp;VLOOKUP(A361,A362:$D$388,4,0),"")</f>
@@ -20164,13 +20131,13 @@
     </row>
     <row r="362" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A362" s="78" t="s">
+        <v>819</v>
+      </c>
+      <c r="B362" s="78" t="s">
         <v>820</v>
       </c>
-      <c r="B362" s="78" t="s">
+      <c r="C362" s="78" t="s">
         <v>821</v>
-      </c>
-      <c r="C362" s="78" t="s">
-        <v>822</v>
       </c>
       <c r="D362" s="22" t="str">
         <f ca="1">B362&amp;IFERROR("、"&amp;VLOOKUP(A362,A363:$D$388,4,0),"")</f>
@@ -20183,13 +20150,13 @@
     </row>
     <row r="363" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A363" s="78" t="s">
+        <v>822</v>
+      </c>
+      <c r="B363" s="78" t="s">
         <v>823</v>
       </c>
-      <c r="B363" s="78" t="s">
+      <c r="C363" s="78" t="s">
         <v>824</v>
-      </c>
-      <c r="C363" s="78" t="s">
-        <v>825</v>
       </c>
       <c r="D363" s="22" t="str">
         <f ca="1">B363&amp;IFERROR("、"&amp;VLOOKUP(A363,A364:$D$388,4,0),"")</f>
@@ -20202,13 +20169,13 @@
     </row>
     <row r="364" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A364" s="78" t="s">
+        <v>825</v>
+      </c>
+      <c r="B364" s="78" t="s">
         <v>826</v>
       </c>
-      <c r="B364" s="78" t="s">
+      <c r="C364" s="78" t="s">
         <v>827</v>
-      </c>
-      <c r="C364" s="78" t="s">
-        <v>828</v>
       </c>
       <c r="D364" s="22" t="str">
         <f ca="1">B364&amp;IFERROR("、"&amp;VLOOKUP(A364,A365:$D$388,4,0),"")</f>
@@ -20221,13 +20188,13 @@
     </row>
     <row r="365" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A365" s="80" t="s">
+        <v>828</v>
+      </c>
+      <c r="B365" s="78" t="s">
         <v>829</v>
       </c>
-      <c r="B365" s="78" t="s">
+      <c r="C365" s="78" t="s">
         <v>830</v>
-      </c>
-      <c r="C365" s="78" t="s">
-        <v>831</v>
       </c>
       <c r="D365" s="22" t="str">
         <f ca="1">B365&amp;IFERROR("、"&amp;VLOOKUP(A365,A366:$D$388,4,0),"")</f>
@@ -20240,13 +20207,13 @@
     </row>
     <row r="366" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A366" s="78" t="s">
+        <v>831</v>
+      </c>
+      <c r="B366" s="78" t="s">
         <v>832</v>
       </c>
-      <c r="B366" s="78" t="s">
+      <c r="C366" s="78" t="s">
         <v>833</v>
-      </c>
-      <c r="C366" s="78" t="s">
-        <v>834</v>
       </c>
       <c r="D366" s="22" t="str">
         <f ca="1">B366&amp;IFERROR("、"&amp;VLOOKUP(A366,A367:$D$388,4,0),"")</f>
@@ -20259,13 +20226,13 @@
     </row>
     <row r="367" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A367" s="78" t="s">
+        <v>834</v>
+      </c>
+      <c r="B367" s="78" t="s">
         <v>835</v>
       </c>
-      <c r="B367" s="78" t="s">
+      <c r="C367" s="78" t="s">
         <v>836</v>
-      </c>
-      <c r="C367" s="78" t="s">
-        <v>837</v>
       </c>
       <c r="D367" s="22" t="str">
         <f ca="1">B367&amp;IFERROR("、"&amp;VLOOKUP(A367,A368:$D$388,4,0),"")</f>
@@ -20278,13 +20245,13 @@
     </row>
     <row r="368" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A368" s="78" t="s">
+        <v>837</v>
+      </c>
+      <c r="B368" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="B368" s="78" t="s">
+      <c r="C368" s="78" t="s">
         <v>839</v>
-      </c>
-      <c r="C368" s="78" t="s">
-        <v>840</v>
       </c>
       <c r="D368" s="22" t="str">
         <f ca="1">B368&amp;IFERROR("、"&amp;VLOOKUP(A368,A369:$D$388,4,0),"")</f>
@@ -20297,13 +20264,13 @@
     </row>
     <row r="369" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A369" s="78" t="s">
+        <v>840</v>
+      </c>
+      <c r="B369" s="78" t="s">
         <v>841</v>
       </c>
-      <c r="B369" s="78" t="s">
+      <c r="C369" s="78" t="s">
         <v>842</v>
-      </c>
-      <c r="C369" s="78" t="s">
-        <v>843</v>
       </c>
       <c r="D369" s="22" t="str">
         <f ca="1">B369&amp;IFERROR("、"&amp;VLOOKUP(A369,A370:$D$388,4,0),"")</f>
@@ -20316,13 +20283,13 @@
     </row>
     <row r="370" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A370" s="78" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B370" s="78" t="s">
+        <v>843</v>
+      </c>
+      <c r="C370" s="78" t="s">
         <v>844</v>
-      </c>
-      <c r="C370" s="78" t="s">
-        <v>845</v>
       </c>
       <c r="D370" s="22" t="str">
         <f ca="1">B370&amp;IFERROR("、"&amp;VLOOKUP(A370,A371:$D$388,4,0),"")</f>
@@ -20335,13 +20302,13 @@
     </row>
     <row r="371" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A371" s="78" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B371" s="78" t="s">
+        <v>845</v>
+      </c>
+      <c r="C371" s="78" t="s">
         <v>846</v>
-      </c>
-      <c r="C371" s="78" t="s">
-        <v>847</v>
       </c>
       <c r="D371" s="22" t="str">
         <f ca="1">B371&amp;IFERROR("、"&amp;VLOOKUP(A371,A372:$D$388,4,0),"")</f>
@@ -20354,13 +20321,13 @@
     </row>
     <row r="372" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A372" s="78" t="s">
+        <v>847</v>
+      </c>
+      <c r="B372" s="78" t="s">
         <v>848</v>
       </c>
-      <c r="B372" s="78" t="s">
+      <c r="C372" s="78" t="s">
         <v>849</v>
-      </c>
-      <c r="C372" s="78" t="s">
-        <v>850</v>
       </c>
       <c r="D372" s="22" t="str">
         <f ca="1">B372&amp;IFERROR("、"&amp;VLOOKUP(A372,A373:$D$388,4,0),"")</f>
@@ -20373,13 +20340,13 @@
     </row>
     <row r="373" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A373" s="78" t="s">
+        <v>850</v>
+      </c>
+      <c r="B373" s="78" t="s">
         <v>851</v>
       </c>
-      <c r="B373" s="78" t="s">
+      <c r="C373" s="78" t="s">
         <v>852</v>
-      </c>
-      <c r="C373" s="78" t="s">
-        <v>853</v>
       </c>
       <c r="D373" s="22" t="str">
         <f ca="1">B373&amp;IFERROR("、"&amp;VLOOKUP(A373,A374:$D$388,4,0),"")</f>
@@ -20392,13 +20359,13 @@
     </row>
     <row r="374" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A374" s="78" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B374" s="78" t="s">
+        <v>853</v>
+      </c>
+      <c r="C374" s="78" t="s">
         <v>854</v>
-      </c>
-      <c r="C374" s="78" t="s">
-        <v>855</v>
       </c>
       <c r="D374" s="22" t="str">
         <f ca="1">B374&amp;IFERROR("、"&amp;VLOOKUP(A374,A375:$D$388,4,0),"")</f>
@@ -20411,13 +20378,13 @@
     </row>
     <row r="375" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A375" s="78" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B375" s="78" t="s">
+        <v>855</v>
+      </c>
+      <c r="C375" s="78" t="s">
         <v>856</v>
-      </c>
-      <c r="C375" s="78" t="s">
-        <v>857</v>
       </c>
       <c r="D375" s="22" t="str">
         <f ca="1">B375&amp;IFERROR("、"&amp;VLOOKUP(A375,A376:$D$388,4,0),"")</f>
@@ -20430,13 +20397,13 @@
     </row>
     <row r="376" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A376" s="78" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B376" s="78" t="s">
+        <v>857</v>
+      </c>
+      <c r="C376" s="78" t="s">
         <v>858</v>
-      </c>
-      <c r="C376" s="78" t="s">
-        <v>859</v>
       </c>
       <c r="D376" s="22" t="str">
         <f ca="1">B376&amp;IFERROR("、"&amp;VLOOKUP(A376,A377:$D$388,4,0),"")</f>
@@ -20449,13 +20416,13 @@
     </row>
     <row r="377" s="17" customFormat="1" ht="17.45" customHeight="1" spans="1:5">
       <c r="A377" s="78" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B377" s="81" t="s">
+        <v>859</v>
+      </c>
+      <c r="C377" s="81" t="s">
         <v>860</v>
-      </c>
-      <c r="C377" s="81" t="s">
-        <v>861</v>
       </c>
       <c r="D377" s="22" t="str">
         <f ca="1">B377&amp;IFERROR("、"&amp;VLOOKUP(A377,A378:$D$388,4,0),"")</f>
@@ -20468,13 +20435,13 @@
     </row>
     <row r="378" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A378" s="25" t="s">
+        <v>861</v>
+      </c>
+      <c r="B378" s="49" t="s">
         <v>862</v>
       </c>
-      <c r="B378" s="49" t="s">
+      <c r="C378" s="49" t="s">
         <v>863</v>
-      </c>
-      <c r="C378" s="49" t="s">
-        <v>864</v>
       </c>
       <c r="D378" s="22" t="str">
         <f ca="1">B378&amp;IFERROR("、"&amp;VLOOKUP(A378,A379:$D$388,4,0),"")</f>
@@ -20487,13 +20454,13 @@
     </row>
     <row r="379" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A379" s="26" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B379" s="49" t="s">
+        <v>864</v>
+      </c>
+      <c r="C379" s="49" t="s">
         <v>865</v>
-      </c>
-      <c r="C379" s="49" t="s">
-        <v>866</v>
       </c>
       <c r="D379" s="22" t="str">
         <f ca="1">B379&amp;IFERROR("、"&amp;VLOOKUP(A379,A380:$D$388,4,0),"")</f>
@@ -20506,13 +20473,13 @@
     </row>
     <row r="380" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A380" s="26" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B380" s="49" t="s">
+        <v>866</v>
+      </c>
+      <c r="C380" s="49" t="s">
         <v>867</v>
-      </c>
-      <c r="C380" s="49" t="s">
-        <v>868</v>
       </c>
       <c r="D380" s="22" t="str">
         <f ca="1">B380&amp;IFERROR("、"&amp;VLOOKUP(A380,A381:$D$388,4,0),"")</f>
@@ -20525,13 +20492,13 @@
     </row>
     <row r="381" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A381" s="25" t="s">
+        <v>868</v>
+      </c>
+      <c r="B381" s="49" t="s">
         <v>869</v>
       </c>
-      <c r="B381" s="49" t="s">
+      <c r="C381" s="49" t="s">
         <v>870</v>
-      </c>
-      <c r="C381" s="49" t="s">
-        <v>871</v>
       </c>
       <c r="D381" s="22" t="str">
         <f ca="1">B381&amp;IFERROR("、"&amp;VLOOKUP(A381,A382:$D$388,4,0),"")</f>
@@ -20544,13 +20511,13 @@
     </row>
     <row r="382" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A382" s="26" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B382" s="49" t="s">
+        <v>871</v>
+      </c>
+      <c r="C382" s="49" t="s">
         <v>872</v>
-      </c>
-      <c r="C382" s="49" t="s">
-        <v>873</v>
       </c>
       <c r="D382" s="22" t="str">
         <f ca="1">B382&amp;IFERROR("、"&amp;VLOOKUP(A382,A383:$D$388,4,0),"")</f>
@@ -20563,13 +20530,13 @@
     </row>
     <row r="383" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A383" s="26" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B383" s="49" t="s">
+        <v>873</v>
+      </c>
+      <c r="C383" s="49" t="s">
         <v>874</v>
-      </c>
-      <c r="C383" s="49" t="s">
-        <v>875</v>
       </c>
       <c r="D383" s="22" t="str">
         <f ca="1">B383&amp;IFERROR("、"&amp;VLOOKUP(A383,A384:$D$388,4,0),"")</f>
@@ -20582,13 +20549,13 @@
     </row>
     <row r="384" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A384" s="26" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B384" s="49" t="s">
+        <v>875</v>
+      </c>
+      <c r="C384" s="49" t="s">
         <v>876</v>
-      </c>
-      <c r="C384" s="49" t="s">
-        <v>877</v>
       </c>
       <c r="D384" s="22" t="str">
         <f ca="1">B384&amp;IFERROR("、"&amp;VLOOKUP(A384,A385:$D$388,4,0),"")</f>
@@ -20601,13 +20568,13 @@
     </row>
     <row r="385" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A385" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="B385" s="49" t="s">
         <v>878</v>
       </c>
-      <c r="B385" s="49" t="s">
+      <c r="C385" s="49" t="s">
         <v>879</v>
-      </c>
-      <c r="C385" s="49" t="s">
-        <v>880</v>
       </c>
       <c r="D385" s="22" t="str">
         <f ca="1">B385&amp;IFERROR("、"&amp;VLOOKUP(A385,A386:$D$388,4,0),"")</f>
@@ -20620,13 +20587,13 @@
     </row>
     <row r="386" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A386" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="B386" s="49" t="s">
         <v>881</v>
       </c>
-      <c r="B386" s="49" t="s">
+      <c r="C386" s="49" t="s">
         <v>882</v>
-      </c>
-      <c r="C386" s="49" t="s">
-        <v>883</v>
       </c>
       <c r="D386" s="22" t="str">
         <f ca="1">B386&amp;IFERROR("、"&amp;VLOOKUP(A386,A387:$D$388,4,0),"")</f>
@@ -20639,13 +20606,13 @@
     </row>
     <row r="387" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A387" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="B387" s="49" t="s">
         <v>884</v>
       </c>
-      <c r="B387" s="49" t="s">
+      <c r="C387" s="49" t="s">
         <v>885</v>
-      </c>
-      <c r="C387" s="49" t="s">
-        <v>886</v>
       </c>
       <c r="D387" s="22" t="str">
         <f ca="1">B387&amp;IFERROR("、"&amp;VLOOKUP(A387,A388:$D$388,4,0),"")</f>
@@ -20658,17 +20625,16 @@
     </row>
     <row r="388" s="17" customFormat="1" ht="17.75" customHeight="1" spans="1:5">
       <c r="A388" s="21" t="s">
+        <v>886</v>
+      </c>
+      <c r="B388" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="B388" s="49" t="s">
+      <c r="C388" s="49" t="s">
         <v>888</v>
       </c>
-      <c r="C388" s="49" t="s">
-        <v>889</v>
-      </c>
-      <c r="D388" s="22">
-        <f ca="1">B388&amp;IFERROR("、"&amp;VLOOKUP(A388,A$388:$D389,4,0),"")</f>
-        <v>0</v>
+      <c r="D388" s="49" t="s">
+        <v>887</v>
       </c>
       <c r="E388" s="23">
         <f ca="1">C388&amp;IFERROR("、"&amp;VLOOKUP(A388,A$388:$E389,5,0),"")</f>
@@ -20983,8 +20949,8 @@
   </sheetPr>
   <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -21020,7 +20986,7 @@
     </row>
     <row r="3" ht="15.55" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -21032,34 +20998,34 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>894</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>895</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" ht="15.6" customHeight="1" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>897</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>898</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -21067,10 +21033,10 @@
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>899</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>900</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -21078,10 +21044,10 @@
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>901</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>902</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -21089,36 +21055,36 @@
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>903</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>904</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" ht="15.6" customHeight="1" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>905</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>906</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>907</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" ht="15.6" customHeight="1" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>908</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>909</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>910</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -21126,10 +21092,10 @@
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>911</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>912</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -21137,10 +21103,10 @@
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>913</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>914</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -21148,10 +21114,10 @@
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>915</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>916</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -21159,10 +21125,10 @@
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>917</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>918</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -21170,10 +21136,10 @@
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>919</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>920</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -21181,10 +21147,10 @@
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>921</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>922</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -21192,23 +21158,23 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>923</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>924</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" ht="15.6" customHeight="1" spans="1:5">
       <c r="A18" s="12"/>
       <c r="B18" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>925</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>926</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>927</v>
       </c>
       <c r="E18" s="11"/>
     </row>
@@ -21216,10 +21182,10 @@
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>928</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>929</v>
       </c>
       <c r="E19" s="11"/>
     </row>
@@ -21227,10 +21193,10 @@
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>930</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>931</v>
       </c>
       <c r="E20" s="11"/>
     </row>
@@ -21238,10 +21204,10 @@
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>932</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>933</v>
       </c>
       <c r="E21" s="11"/>
     </row>
@@ -21249,10 +21215,10 @@
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>934</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>935</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -21260,10 +21226,10 @@
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>936</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>937</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -21271,23 +21237,23 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>938</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>939</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" ht="15.6" customHeight="1" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>940</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>941</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>942</v>
       </c>
       <c r="E25" s="11"/>
     </row>
@@ -21295,10 +21261,10 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>943</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>944</v>
       </c>
       <c r="E26" s="11"/>
     </row>
@@ -21306,23 +21272,23 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>945</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>946</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" ht="15.6" customHeight="1" spans="1:5">
       <c r="A28" s="12"/>
       <c r="B28" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>948</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>949</v>
       </c>
       <c r="E28" s="11"/>
     </row>
@@ -21330,10 +21296,10 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>950</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>951</v>
       </c>
       <c r="E29" s="11"/>
     </row>
@@ -21341,10 +21307,10 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>952</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>953</v>
       </c>
       <c r="E30" s="11"/>
     </row>
@@ -21352,10 +21318,10 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>954</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>955</v>
       </c>
       <c r="E31" s="11"/>
     </row>
@@ -21363,10 +21329,10 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>956</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>957</v>
       </c>
       <c r="E32" s="11"/>
     </row>
@@ -21374,10 +21340,10 @@
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>958</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>959</v>
       </c>
       <c r="E33" s="11"/>
     </row>
@@ -21385,10 +21351,10 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>960</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>961</v>
       </c>
       <c r="E34" s="11"/>
     </row>
@@ -21396,23 +21362,23 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>962</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>963</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" ht="15.6" customHeight="1" spans="1:5">
       <c r="A36" s="12"/>
       <c r="B36" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>964</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>965</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>966</v>
       </c>
       <c r="E36" s="11"/>
     </row>
@@ -21420,49 +21386,49 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>967</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>968</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" ht="15.6" customHeight="1" spans="1:5">
       <c r="A38" s="12"/>
       <c r="B38" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>969</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>970</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>971</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" ht="15.6" customHeight="1" spans="1:5">
       <c r="A39" s="12"/>
       <c r="B39" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>973</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>974</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" ht="15.6" customHeight="1" spans="1:5">
       <c r="A40" s="12"/>
       <c r="B40" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>976</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>977</v>
       </c>
       <c r="E40" s="11"/>
     </row>
@@ -21470,23 +21436,23 @@
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>978</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>979</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" ht="15.6" customHeight="1" spans="1:5">
       <c r="A42" s="12"/>
       <c r="B42" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>980</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>981</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>982</v>
       </c>
       <c r="E42" s="11"/>
     </row>
@@ -21494,10 +21460,10 @@
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>983</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>984</v>
       </c>
       <c r="E43" s="11"/>
     </row>
@@ -21505,10 +21471,10 @@
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>985</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>986</v>
       </c>
       <c r="E44" s="11"/>
     </row>
@@ -21516,10 +21482,10 @@
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>987</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>988</v>
       </c>
       <c r="E45" s="11"/>
     </row>
@@ -21527,10 +21493,10 @@
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>989</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>990</v>
       </c>
       <c r="E46" s="11"/>
     </row>
@@ -21538,23 +21504,23 @@
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>991</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>992</v>
       </c>
       <c r="E47" s="11"/>
     </row>
     <row r="48" ht="28.85" customHeight="1" spans="1:5">
       <c r="A48" s="12"/>
       <c r="B48" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>993</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>994</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>995</v>
       </c>
       <c r="E48" s="11"/>
     </row>
@@ -21562,10 +21528,10 @@
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>996</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>997</v>
       </c>
       <c r="E49" s="11"/>
     </row>
@@ -21573,23 +21539,23 @@
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>998</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>999</v>
       </c>
       <c r="E50" s="11"/>
     </row>
     <row r="51" ht="28.85" customHeight="1" spans="1:5">
       <c r="A51" s="12"/>
       <c r="B51" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>1000</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>1001</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>1002</v>
       </c>
       <c r="E51" s="11"/>
     </row>
@@ -21597,23 +21563,23 @@
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>1003</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>1004</v>
       </c>
       <c r="E52" s="11"/>
     </row>
     <row r="53" ht="15.6" customHeight="1" spans="1:5">
       <c r="A53" s="12"/>
       <c r="B53" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>1005</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="D53" s="10" t="s">
         <v>1006</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>1007</v>
       </c>
       <c r="E53" s="11"/>
     </row>
@@ -21621,10 +21587,10 @@
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>1008</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>1009</v>
       </c>
       <c r="E54" s="11"/>
     </row>
@@ -21632,10 +21598,10 @@
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>1010</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>1011</v>
       </c>
       <c r="E55" s="11"/>
     </row>
@@ -21643,10 +21609,10 @@
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>1012</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>1013</v>
       </c>
       <c r="E56" s="11"/>
     </row>
@@ -21654,10 +21620,10 @@
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>1014</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>1015</v>
       </c>
       <c r="E57" s="11"/>
     </row>
@@ -21665,36 +21631,36 @@
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>1016</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>1017</v>
       </c>
       <c r="E58" s="11"/>
     </row>
     <row r="59" ht="15.6" customHeight="1" spans="1:5">
       <c r="A59" s="12"/>
       <c r="B59" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="D59" s="10" t="s">
         <v>1019</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>1020</v>
       </c>
       <c r="E59" s="11"/>
     </row>
     <row r="60" ht="28.85" customHeight="1" spans="1:5">
       <c r="A60" s="12"/>
       <c r="B60" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="D60" s="10" t="s">
         <v>1022</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>1023</v>
       </c>
       <c r="E60" s="11"/>
     </row>
@@ -21702,10 +21668,10 @@
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>1024</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>1025</v>
       </c>
       <c r="E61" s="11"/>
     </row>
@@ -21713,10 +21679,10 @@
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
       <c r="C62" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>1026</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>1027</v>
       </c>
       <c r="E62" s="11"/>
     </row>
@@ -21724,64 +21690,64 @@
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>1028</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>1029</v>
       </c>
       <c r="E63" s="11"/>
     </row>
     <row r="64" ht="15.6" customHeight="1" spans="1:5">
       <c r="A64" s="12"/>
       <c r="B64" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>1030</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>1031</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>1032</v>
       </c>
       <c r="E64" s="11"/>
     </row>
     <row r="65" ht="15.6" customHeight="1" spans="1:5">
       <c r="A65" s="12"/>
       <c r="B65" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>1033</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>1034</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>1035</v>
       </c>
       <c r="E65" s="11"/>
     </row>
     <row r="66" ht="15.6" customHeight="1" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="D66" s="10" t="s">
         <v>785</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>786</v>
       </c>
       <c r="E66" s="11"/>
     </row>
     <row r="67" ht="15.6" customHeight="1" spans="1:5">
       <c r="A67" s="12"/>
       <c r="B67" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="D67" s="10" t="s">
         <v>788</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>789</v>
       </c>
       <c r="E67" s="11"/>
     </row>
@@ -21789,10 +21755,10 @@
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>790</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>791</v>
       </c>
       <c r="E68" s="11"/>
     </row>
@@ -21800,81 +21766,81 @@
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>792</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>793</v>
       </c>
       <c r="E69" s="11"/>
     </row>
     <row r="70" ht="15.6" customHeight="1" spans="1:5">
       <c r="A70" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B70" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="D70" s="10" t="s">
         <v>812</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>813</v>
       </c>
       <c r="E70" s="11"/>
     </row>
     <row r="71" ht="15.6" customHeight="1" spans="1:5">
       <c r="A71" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>1039</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>1040</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>1041</v>
       </c>
       <c r="E71" s="11"/>
     </row>
     <row r="72" ht="15.6" customHeight="1" spans="1:5">
       <c r="A72" s="12"/>
       <c r="B72" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>1042</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="D72" s="10" t="s">
         <v>1043</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>1044</v>
       </c>
       <c r="E72" s="11"/>
     </row>
     <row r="73" ht="15.6" customHeight="1" spans="1:5">
       <c r="A73" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>1046</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="D73" s="10" t="s">
         <v>1047</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>1048</v>
       </c>
       <c r="E73" s="11"/>
     </row>
     <row r="74" ht="15.6" customHeight="1" spans="1:5">
       <c r="A74" s="12"/>
       <c r="B74" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="D74" s="10" t="s">
         <v>1050</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>1051</v>
       </c>
       <c r="E74" s="11"/>
     </row>
@@ -21882,25 +21848,25 @@
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>1052</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>1053</v>
       </c>
       <c r="E75" s="11"/>
     </row>
     <row r="76" ht="15.6" customHeight="1" spans="1:5">
       <c r="A76" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="D76" s="10" t="s">
         <v>1056</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>1057</v>
       </c>
       <c r="E76" s="11"/>
     </row>
@@ -21908,10 +21874,10 @@
       <c r="A77" s="12"/>
       <c r="B77" s="13"/>
       <c r="C77" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>1058</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>1059</v>
       </c>
       <c r="E77" s="11"/>
     </row>
@@ -21919,49 +21885,49 @@
       <c r="A78" s="12"/>
       <c r="B78" s="13"/>
       <c r="C78" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>1060</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>1061</v>
       </c>
       <c r="E78" s="11"/>
     </row>
     <row r="79" ht="15.35" customHeight="1" spans="1:5">
       <c r="A79" s="12"/>
       <c r="B79" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>1062</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="D79" s="10" t="s">
         <v>1063</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>1064</v>
       </c>
       <c r="E79" s="11"/>
     </row>
     <row r="80" ht="15.35" customHeight="1" spans="1:5">
       <c r="A80" s="12"/>
       <c r="B80" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>1066</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>1067</v>
       </c>
       <c r="E80" s="11"/>
     </row>
     <row r="81" ht="15.6" customHeight="1" spans="1:5">
       <c r="A81" s="12"/>
       <c r="B81" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>1068</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="D81" s="10" t="s">
         <v>1069</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>1070</v>
       </c>
       <c r="E81" s="11"/>
     </row>
@@ -21969,25 +21935,25 @@
       <c r="A82" s="12"/>
       <c r="B82" s="13"/>
       <c r="C82" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>1071</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>1072</v>
       </c>
       <c r="E82" s="11"/>
     </row>
     <row r="83" ht="15.6" customHeight="1" spans="1:5">
       <c r="A83" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>1073</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>1075</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>1076</v>
       </c>
       <c r="E83" s="11"/>
     </row>
@@ -21995,10 +21961,10 @@
       <c r="A84" s="12"/>
       <c r="B84" s="13"/>
       <c r="C84" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>1077</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>1078</v>
       </c>
       <c r="E84" s="11"/>
     </row>
@@ -22006,62 +21972,62 @@
       <c r="A85" s="12"/>
       <c r="B85" s="13"/>
       <c r="C85" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>1079</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>1080</v>
       </c>
       <c r="E85" s="11"/>
     </row>
     <row r="86" ht="15.6" customHeight="1" spans="1:5">
       <c r="A86" s="12"/>
       <c r="B86" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>1081</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="D86" s="10" t="s">
         <v>1082</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>1083</v>
       </c>
       <c r="E86" s="11"/>
     </row>
     <row r="87" ht="15.35" customHeight="1" spans="1:5">
       <c r="A87" s="12"/>
       <c r="B87" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>1084</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="D87" s="10" t="s">
         <v>1085</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>1086</v>
       </c>
       <c r="E87" s="11"/>
     </row>
     <row r="88" ht="15.6" customHeight="1" spans="1:5">
       <c r="A88" s="12"/>
       <c r="B88" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>1087</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="D88" s="10" t="s">
         <v>1088</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>1089</v>
       </c>
       <c r="E88" s="11"/>
     </row>
     <row r="89" ht="15.6" customHeight="1" spans="1:5">
       <c r="A89" s="12"/>
       <c r="B89" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>1090</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="D89" s="10" t="s">
         <v>1091</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>1092</v>
       </c>
       <c r="E89" s="11"/>
     </row>
@@ -22069,10 +22035,10 @@
       <c r="A90" s="12"/>
       <c r="B90" s="13"/>
       <c r="C90" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>1093</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>1094</v>
       </c>
       <c r="E90" s="11"/>
     </row>
@@ -22080,10 +22046,10 @@
       <c r="A91" s="12"/>
       <c r="B91" s="13"/>
       <c r="C91" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>1095</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>1096</v>
       </c>
       <c r="E91" s="11"/>
     </row>
@@ -22091,10 +22057,10 @@
       <c r="A92" s="12"/>
       <c r="B92" s="13"/>
       <c r="C92" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>1097</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>1098</v>
       </c>
       <c r="E92" s="11"/>
     </row>
@@ -22102,23 +22068,23 @@
       <c r="A93" s="12"/>
       <c r="B93" s="13"/>
       <c r="C93" s="10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>1099</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>1100</v>
       </c>
       <c r="E93" s="11"/>
     </row>
     <row r="94" ht="15.6" customHeight="1" spans="1:5">
       <c r="A94" s="12"/>
       <c r="B94" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>1101</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="D94" s="10" t="s">
         <v>1102</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>1103</v>
       </c>
       <c r="E94" s="11"/>
     </row>
@@ -22126,25 +22092,25 @@
       <c r="A95" s="12"/>
       <c r="B95" s="13"/>
       <c r="C95" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>1104</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>1105</v>
       </c>
       <c r="E95" s="11"/>
     </row>
     <row r="96" ht="15.6" customHeight="1" spans="1:5">
       <c r="A96" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>1107</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="D96" s="10" t="s">
         <v>1108</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>1109</v>
       </c>
       <c r="E96" s="11"/>
     </row>
@@ -22152,23 +22118,23 @@
       <c r="A97" s="12"/>
       <c r="B97" s="13"/>
       <c r="C97" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>1110</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>1111</v>
       </c>
       <c r="E97" s="11"/>
     </row>
     <row r="98" ht="15.6" customHeight="1" spans="1:5">
       <c r="A98" s="12"/>
       <c r="B98" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>1112</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="D98" s="10" t="s">
         <v>1113</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>1114</v>
       </c>
       <c r="E98" s="11"/>
     </row>
@@ -22176,66 +22142,66 @@
       <c r="A99" s="12"/>
       <c r="B99" s="13"/>
       <c r="C99" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>1115</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>1116</v>
       </c>
       <c r="E99" s="11"/>
     </row>
     <row r="100" ht="15.6" customHeight="1" spans="1:5">
       <c r="A100" s="12"/>
       <c r="B100" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>1117</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="D100" s="10" t="s">
         <v>1118</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>1119</v>
       </c>
       <c r="E100" s="11"/>
     </row>
     <row r="101" ht="15.6" customHeight="1" spans="1:5">
       <c r="A101" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>1120</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="C101" s="10" t="s">
         <v>1121</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="D101" s="10" t="s">
         <v>1122</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>1123</v>
       </c>
       <c r="E101" s="11"/>
     </row>
     <row r="102" ht="15.6" customHeight="1" spans="1:5">
       <c r="A102" s="12"/>
       <c r="B102" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>1124</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="D102" s="10" t="s">
         <v>1125</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>1126</v>
       </c>
       <c r="E102" s="11"/>
     </row>
     <row r="103" ht="15.6" customHeight="1" spans="1:5">
       <c r="A103" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>1127</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="C103" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="D103" s="10" t="s">
         <v>1129</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>1130</v>
       </c>
       <c r="E103" s="11"/>
     </row>
@@ -22243,10 +22209,10 @@
       <c r="A104" s="12"/>
       <c r="B104" s="13"/>
       <c r="C104" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>1131</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>1132</v>
       </c>
       <c r="E104" s="11"/>
     </row>
@@ -22254,10 +22220,10 @@
       <c r="A105" s="12"/>
       <c r="B105" s="13"/>
       <c r="C105" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>1133</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>1134</v>
       </c>
       <c r="E105" s="11"/>
     </row>
@@ -22265,10 +22231,10 @@
       <c r="A106" s="12"/>
       <c r="B106" s="13"/>
       <c r="C106" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>1135</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>1136</v>
       </c>
       <c r="E106" s="11"/>
     </row>
@@ -22276,10 +22242,10 @@
       <c r="A107" s="12"/>
       <c r="B107" s="13"/>
       <c r="C107" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>1137</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>1138</v>
       </c>
       <c r="E107" s="11"/>
     </row>
@@ -22287,10 +22253,10 @@
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="C108" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D108" s="10" t="s">
         <v>1139</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>1140</v>
       </c>
       <c r="E108" s="11"/>
     </row>
@@ -22298,10 +22264,10 @@
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
       <c r="C109" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>1141</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>1142</v>
       </c>
       <c r="E109" s="11"/>
     </row>
@@ -22309,25 +22275,25 @@
       <c r="A110" s="12"/>
       <c r="B110" s="13"/>
       <c r="C110" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>1143</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>1144</v>
       </c>
       <c r="E110" s="11"/>
     </row>
     <row r="111" ht="15.6" customHeight="1" spans="1:5">
       <c r="A111" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="C111" s="10" t="s">
         <v>1146</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="D111" s="10" t="s">
         <v>1147</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>1148</v>
       </c>
       <c r="E111" s="11"/>
     </row>
@@ -22335,10 +22301,10 @@
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
       <c r="C112" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>1149</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>1150</v>
       </c>
       <c r="E112" s="11"/>
     </row>
@@ -22346,10 +22312,10 @@
       <c r="A113" s="12"/>
       <c r="B113" s="13"/>
       <c r="C113" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>1151</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>1152</v>
       </c>
       <c r="E113" s="11"/>
     </row>
@@ -22357,10 +22323,10 @@
       <c r="A114" s="12"/>
       <c r="B114" s="13"/>
       <c r="C114" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>1153</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>1154</v>
       </c>
       <c r="E114" s="11"/>
     </row>
@@ -22368,25 +22334,25 @@
       <c r="A115" s="12"/>
       <c r="B115" s="13"/>
       <c r="C115" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>1155</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>1156</v>
       </c>
       <c r="E115" s="11"/>
     </row>
     <row r="116" ht="15.6" customHeight="1" spans="1:5">
       <c r="A116" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>1157</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="C116" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="D116" s="10" t="s">
         <v>1159</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>1160</v>
       </c>
       <c r="E116" s="11"/>
     </row>
@@ -22394,10 +22360,10 @@
       <c r="A117" s="12"/>
       <c r="B117" s="13"/>
       <c r="C117" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>1161</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>1162</v>
       </c>
       <c r="E117" s="11"/>
     </row>
@@ -22405,10 +22371,10 @@
       <c r="A118" s="12"/>
       <c r="B118" s="13"/>
       <c r="C118" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>1163</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>1164</v>
       </c>
       <c r="E118" s="11"/>
     </row>
@@ -22416,10 +22382,10 @@
       <c r="A119" s="12"/>
       <c r="B119" s="13"/>
       <c r="C119" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>1165</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>1166</v>
       </c>
       <c r="E119" s="11"/>
     </row>
@@ -22427,64 +22393,64 @@
       <c r="A120" s="12"/>
       <c r="B120" s="13"/>
       <c r="C120" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>1167</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>1168</v>
       </c>
       <c r="E120" s="11"/>
     </row>
     <row r="121" ht="15.6" customHeight="1" spans="1:5">
       <c r="A121" s="12"/>
       <c r="B121" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C121" s="10" t="s">
         <v>1169</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="D121" s="10" t="s">
         <v>1170</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>1171</v>
       </c>
       <c r="E121" s="11"/>
     </row>
     <row r="122" ht="15.6" customHeight="1" spans="1:5">
       <c r="A122" s="12"/>
       <c r="B122" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>1172</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="D122" s="10" t="s">
         <v>1173</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>1174</v>
       </c>
       <c r="E122" s="11"/>
     </row>
     <row r="123" ht="15.6" customHeight="1" spans="1:5">
       <c r="A123" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="C123" s="10" t="s">
         <v>1176</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="D123" s="10" t="s">
         <v>1177</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>1178</v>
       </c>
       <c r="E123" s="11"/>
     </row>
     <row r="124" ht="15.35" customHeight="1" spans="1:5">
       <c r="A124" s="12"/>
       <c r="B124" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C124" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="D124" s="10" t="s">
         <v>1180</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>1181</v>
       </c>
       <c r="E124" s="11"/>
     </row>
@@ -22492,53 +22458,53 @@
       <c r="A125" s="12"/>
       <c r="B125" s="13"/>
       <c r="C125" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>1182</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>1183</v>
       </c>
       <c r="E125" s="11"/>
     </row>
     <row r="126" ht="15.6" customHeight="1" spans="1:5">
       <c r="A126" s="12"/>
       <c r="B126" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="D126" s="10" t="s">
         <v>1185</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>1186</v>
       </c>
       <c r="E126" s="11"/>
     </row>
     <row r="127" ht="15.6" customHeight="1" spans="1:5">
       <c r="A127" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>1187</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="C127" s="10" t="s">
         <v>1188</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="D127" s="10" t="s">
         <v>1189</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>1190</v>
       </c>
       <c r="E127" s="11"/>
     </row>
     <row r="128" ht="15.6" customHeight="1" spans="1:5">
       <c r="A128" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>1191</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="C128" s="10" t="s">
         <v>1192</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="D128" s="10" t="s">
         <v>1193</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>1194</v>
       </c>
       <c r="E128" s="11"/>
     </row>
@@ -22546,10 +22512,10 @@
       <c r="A129" s="12"/>
       <c r="B129" s="13"/>
       <c r="C129" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>1195</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>1196</v>
       </c>
       <c r="E129" s="11"/>
     </row>
@@ -22557,53 +22523,53 @@
       <c r="A130" s="12"/>
       <c r="B130" s="13"/>
       <c r="C130" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>1197</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>1198</v>
       </c>
       <c r="E130" s="11"/>
     </row>
     <row r="131" ht="15.6" customHeight="1" spans="1:5">
       <c r="A131" s="12"/>
       <c r="B131" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>1199</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="D131" s="10" t="s">
         <v>1200</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>1201</v>
       </c>
       <c r="E131" s="11"/>
     </row>
     <row r="132" ht="15.6" customHeight="1" spans="1:5">
       <c r="A132" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>1202</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="C132" s="10" t="s">
         <v>1203</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="D132" s="10" t="s">
         <v>1204</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>1205</v>
       </c>
       <c r="E132" s="11"/>
     </row>
     <row r="133" ht="15.35" customHeight="1" spans="1:5">
       <c r="A133" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>1206</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="C133" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="D133" s="10" t="s">
         <v>1208</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>1209</v>
       </c>
       <c r="E133" s="11"/>
     </row>
@@ -22611,25 +22577,25 @@
       <c r="A134" s="12"/>
       <c r="B134" s="13"/>
       <c r="C134" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>1210</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>1211</v>
       </c>
       <c r="E134" s="11"/>
     </row>
     <row r="135" ht="15.35" customHeight="1" spans="1:5">
       <c r="A135" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>1212</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="C135" s="10" t="s">
         <v>1213</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="D135" s="10" t="s">
         <v>1214</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>1215</v>
       </c>
       <c r="E135" s="11"/>
     </row>
@@ -22637,10 +22603,10 @@
       <c r="A136" s="12"/>
       <c r="B136" s="13"/>
       <c r="C136" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>1216</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>1217</v>
       </c>
       <c r="E136" s="11"/>
     </row>
@@ -22648,10 +22614,10 @@
       <c r="A137" s="12"/>
       <c r="B137" s="13"/>
       <c r="C137" s="10" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>1218</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>1219</v>
       </c>
       <c r="E137" s="11"/>
     </row>
@@ -22659,10 +22625,10 @@
       <c r="A138" s="12"/>
       <c r="B138" s="13"/>
       <c r="C138" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>1220</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>1221</v>
       </c>
       <c r="E138" s="11"/>
     </row>
@@ -22670,10 +22636,10 @@
       <c r="A139" s="12"/>
       <c r="B139" s="13"/>
       <c r="C139" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>1222</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>1223</v>
       </c>
       <c r="E139" s="11"/>
     </row>
@@ -22681,10 +22647,10 @@
       <c r="A140" s="12"/>
       <c r="B140" s="13"/>
       <c r="C140" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D140" s="10" t="s">
         <v>1224</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>1225</v>
       </c>
       <c r="E140" s="11"/>
     </row>
@@ -22692,109 +22658,109 @@
       <c r="A141" s="12"/>
       <c r="B141" s="13"/>
       <c r="C141" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D141" s="10" t="s">
         <v>1226</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>1227</v>
       </c>
       <c r="E141" s="11"/>
     </row>
     <row r="142" ht="15.6" customHeight="1" spans="1:5">
       <c r="A142" s="12"/>
       <c r="B142" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>1228</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="D142" s="10" t="s">
         <v>1229</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>1230</v>
       </c>
       <c r="E142" s="11"/>
     </row>
     <row r="143" ht="15.6" customHeight="1" spans="1:5">
       <c r="A143" s="12"/>
       <c r="B143" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>1231</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="D143" s="10" t="s">
         <v>1232</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>1233</v>
       </c>
       <c r="E143" s="11"/>
     </row>
     <row r="144" ht="15.35" customHeight="1" spans="1:5">
       <c r="A144" s="12"/>
       <c r="B144" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C144" s="10" t="s">
         <v>1234</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="D144" s="10" t="s">
         <v>1235</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>1236</v>
       </c>
       <c r="E144" s="11"/>
     </row>
     <row r="145" ht="15.6" customHeight="1" spans="1:5">
       <c r="A145" s="8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="C145" s="10" t="s">
         <v>1238</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="D145" s="10" t="s">
         <v>1239</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>1240</v>
       </c>
       <c r="E145" s="11"/>
     </row>
     <row r="146" ht="15.6" customHeight="1" spans="1:5">
       <c r="A146" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="C146" s="10" t="s">
         <v>1242</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="D146" s="10" t="s">
         <v>1243</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>1244</v>
       </c>
       <c r="E146" s="11"/>
     </row>
     <row r="147" ht="15.6" customHeight="1" spans="1:5">
       <c r="A147" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>1245</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="C147" s="10" t="s">
         <v>1246</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="D147" s="10" t="s">
         <v>1247</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>1248</v>
       </c>
       <c r="E147" s="11"/>
     </row>
     <row r="148" ht="15.6" customHeight="1" spans="1:5">
       <c r="A148" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>1249</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="C148" s="10" t="s">
         <v>1250</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="D148" s="10" t="s">
         <v>1251</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>1252</v>
       </c>
       <c r="E148" s="11"/>
     </row>
@@ -23006,7 +22972,7 @@
     </row>
     <row r="3" ht="15.55" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -23018,21 +22984,21 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>1253</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>1254</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1255</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -23040,10 +23006,10 @@
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="10" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1256</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1257</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -23051,10 +23017,10 @@
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="10" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1258</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1259</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -23062,10 +23028,10 @@
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="10" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>1260</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1261</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -23073,10 +23039,10 @@
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>1262</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1263</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -23084,10 +23050,10 @@
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>1264</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1265</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -23095,10 +23061,10 @@
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="10" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>1266</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>1267</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -23112,13 +23078,13 @@
     <row r="12" ht="15.6" customHeight="1" spans="1:5">
       <c r="A12" s="12"/>
       <c r="B12" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>1268</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>1269</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>1270</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -23238,7 +23204,7 @@
     </row>
     <row r="3" ht="15.55" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -23250,99 +23216,99 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>1271</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>1272</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1273</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" ht="15.35" customHeight="1" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>1274</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>1275</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1276</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" spans="1:5">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>1277</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>1278</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1279</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" ht="15.6" customHeight="1" spans="1:5">
       <c r="A7" s="12"/>
       <c r="B7" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>1280</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>1281</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1282</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" ht="15.6" customHeight="1" spans="1:5">
       <c r="A8" s="12"/>
       <c r="B8" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>1283</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1284</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" ht="15.6" customHeight="1" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>1285</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>1286</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1287</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" ht="15.6" customHeight="1" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>1288</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>1289</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>1290</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -23350,10 +23316,10 @@
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>1291</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>1292</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -23361,7 +23327,7 @@
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="10" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D12" s="16">
         <v>22161568</v>
@@ -23371,10 +23337,10 @@
     <row r="13" ht="15.35" customHeight="1" spans="1:5">
       <c r="A13" s="12"/>
       <c r="B13" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>1294</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>1295</v>
       </c>
       <c r="D13" s="16">
         <v>13371961956</v>
@@ -23384,28 +23350,28 @@
     <row r="14" ht="15.35" customHeight="1" spans="1:5">
       <c r="A14" s="12"/>
       <c r="B14" s="9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>1296</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>1297</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>1298</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" ht="15.6" customHeight="1" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>1299</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>1300</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>1301</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -23413,10 +23379,10 @@
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>1302</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>1303</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -23424,10 +23390,10 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="10" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>1304</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>1305</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -23435,10 +23401,10 @@
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>1306</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>1307</v>
       </c>
       <c r="E18" s="11"/>
     </row>
@@ -23446,53 +23412,53 @@
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="10" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>1308</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>1309</v>
       </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" ht="15.35" customHeight="1" spans="1:5">
       <c r="A20" s="12"/>
       <c r="B20" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>1310</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>1311</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>1312</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" ht="15.6" customHeight="1" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>1313</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>1314</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>1315</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" spans="1:5">
       <c r="A22" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>1316</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>1317</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>1318</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>1319</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -23500,25 +23466,25 @@
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>1320</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>1321</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" spans="1:5">
       <c r="A24" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>1322</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>1323</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>1324</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>1325</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -23526,7 +23492,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="10" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D25" s="16">
         <v>13758350583</v>
@@ -23536,13 +23502,13 @@
     <row r="26" ht="15.6" customHeight="1" spans="1:5">
       <c r="A26" s="12"/>
       <c r="B26" s="9" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>1327</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>1328</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>1329</v>
       </c>
       <c r="E26" s="11"/>
     </row>
@@ -23550,23 +23516,23 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="10" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>1330</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>1331</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" ht="15.6" customHeight="1" spans="1:5">
       <c r="A28" s="12"/>
       <c r="B28" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>1332</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>1333</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>1334</v>
       </c>
       <c r="E28" s="11"/>
     </row>
@@ -23574,10 +23540,10 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="10" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>1335</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>1336</v>
       </c>
       <c r="E29" s="11"/>
     </row>
@@ -23585,10 +23551,10 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="10" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>1337</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>1338</v>
       </c>
       <c r="E30" s="11"/>
     </row>
@@ -23680,7 +23646,7 @@
     </row>
     <row r="3" ht="15.55" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -23692,21 +23658,21 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>1339</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>1340</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1341</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -23714,49 +23680,49 @@
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="10" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1342</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1343</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" spans="1:5">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>1344</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>1345</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1346</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" ht="15.6" customHeight="1" spans="1:5">
       <c r="A7" s="12"/>
       <c r="B7" s="9" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>1348</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1349</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" ht="15.6" customHeight="1" spans="1:5">
       <c r="A8" s="12"/>
       <c r="B8" s="9" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>1351</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1352</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -23764,20 +23730,20 @@
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="10" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>1353</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1354</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" ht="15.35" customHeight="1" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>1355</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>1356</v>
       </c>
       <c r="D10" s="14">
         <v>15921086088</v>
@@ -23787,13 +23753,13 @@
     <row r="11" ht="15.6" customHeight="1" spans="1:5">
       <c r="A11" s="12"/>
       <c r="B11" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>1357</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>1358</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>1359</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -23801,114 +23767,114 @@
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="10" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>1360</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>1361</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" ht="15.6" customHeight="1" spans="1:5">
       <c r="A13" s="12"/>
       <c r="B13" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>1362</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>1363</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>1364</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" ht="15.6" customHeight="1" spans="1:5">
       <c r="A14" s="12"/>
       <c r="B14" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>1365</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>1366</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>1367</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" ht="15.35" customHeight="1" spans="1:5">
       <c r="A15" s="12"/>
       <c r="B15" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>1368</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>1369</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>1370</v>
       </c>
       <c r="E15" s="11"/>
     </row>
     <row r="16" ht="15.6" customHeight="1" spans="1:5">
       <c r="A16" s="12"/>
       <c r="B16" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>1371</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>1372</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>1373</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" ht="15.6" customHeight="1" spans="1:5">
       <c r="A17" s="12"/>
       <c r="B17" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>1374</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>1375</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>1376</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" ht="15.35" customHeight="1" spans="1:5">
       <c r="A18" s="12"/>
       <c r="B18" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>1377</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>1378</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>1379</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" ht="15.6" customHeight="1" spans="1:5">
       <c r="A19" s="12"/>
       <c r="B19" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>1380</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>1381</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>1382</v>
       </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" ht="15.6" customHeight="1" spans="1:5">
       <c r="A20" s="12"/>
       <c r="B20" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>1383</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>1384</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>1385</v>
       </c>
       <c r="E20" s="11"/>
     </row>
@@ -23916,77 +23882,77 @@
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="10" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>1386</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>1387</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" spans="1:5">
       <c r="A22" s="12"/>
       <c r="B22" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>1388</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>1389</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>1390</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" ht="15.35" customHeight="1" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>1391</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>1392</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>1393</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>1394</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>1395</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>1396</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" ht="15.6" customHeight="1" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>1397</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>1398</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>1399</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" ht="15.6" customHeight="1" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>1400</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>1401</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>1402</v>
       </c>
       <c r="E26" s="11"/>
     </row>
@@ -23994,10 +23960,10 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="10" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>1403</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>1404</v>
       </c>
       <c r="E27" s="11"/>
     </row>
@@ -24005,173 +23971,173 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>1405</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>1406</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" ht="15.6" customHeight="1" spans="1:5">
       <c r="A29" s="12"/>
       <c r="B29" s="9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>1407</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>1408</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>1409</v>
       </c>
       <c r="E29" s="11"/>
     </row>
     <row r="30" ht="15.6" customHeight="1" spans="1:5">
       <c r="A30" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>1410</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>1411</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>1412</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>1413</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" ht="15.6" customHeight="1" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>1414</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>1415</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>1416</v>
       </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" ht="15.6" customHeight="1" spans="1:5">
       <c r="A32" s="12"/>
       <c r="B32" s="9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>1417</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>1418</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>1419</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" ht="15.35" customHeight="1" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>1420</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>1421</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>1422</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" ht="15.35" customHeight="1" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>1423</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>1424</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>1425</v>
       </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" ht="15.6" customHeight="1" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>1426</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>1427</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>1428</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" ht="15.6" customHeight="1" spans="1:5">
       <c r="A36" s="12"/>
       <c r="B36" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>1429</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>1430</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>1431</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" ht="15.35" customHeight="1" spans="1:5">
       <c r="A37" s="12"/>
       <c r="B37" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>1432</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>1433</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>1434</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" ht="15.6" customHeight="1" spans="1:5">
       <c r="A38" s="12"/>
       <c r="B38" s="9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>1435</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>1436</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>1437</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" ht="15.35" customHeight="1" spans="1:5">
       <c r="A39" s="12"/>
       <c r="B39" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>1438</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>1439</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>1440</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" ht="15.35" customHeight="1" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>1441</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>1442</v>
       </c>
       <c r="D40" s="14">
         <v>13839345999</v>
@@ -24181,43 +24147,43 @@
     <row r="41" ht="15.35" customHeight="1" spans="1:5">
       <c r="A41" s="12"/>
       <c r="B41" s="9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>1443</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="15" t="s">
         <v>1444</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>1445</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" ht="15.6" customHeight="1" spans="1:5">
       <c r="A42" s="8" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>1446</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>1447</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>1448</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>1449</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" ht="15.35" customHeight="1" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>1450</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>1451</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>1452</v>
       </c>
       <c r="E43" s="11"/>
     </row>
@@ -24225,10 +24191,10 @@
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>1453</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>1454</v>
       </c>
       <c r="E44" s="11"/>
     </row>
@@ -24681,7 +24647,7 @@
     </row>
     <row r="3" ht="15.55" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -24693,21 +24659,21 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>1455</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>1456</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1457</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -24715,25 +24681,25 @@
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>1458</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1459</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>1461</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1462</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -24747,13 +24713,13 @@
     <row r="8" ht="15.6" customHeight="1" spans="1:5">
       <c r="A8" s="12"/>
       <c r="B8" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>1463</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>1464</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1465</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -24761,23 +24727,23 @@
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>1466</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1467</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" ht="15.6" customHeight="1" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>1468</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>1469</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>1470</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -24785,23 +24751,23 @@
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>1471</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>1472</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" ht="15.6" customHeight="1" spans="1:5">
       <c r="A12" s="12"/>
       <c r="B12" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>1473</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>1474</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>1475</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -24809,88 +24775,88 @@
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>1476</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>1477</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" ht="15.6" customHeight="1" spans="1:5">
       <c r="A14" s="12"/>
       <c r="B14" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>1478</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>1479</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>1480</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" ht="15.35" customHeight="1" spans="1:5">
       <c r="A15" s="12"/>
       <c r="B15" s="9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>1481</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>1482</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>1483</v>
       </c>
       <c r="E15" s="11"/>
     </row>
     <row r="16" ht="15.6" customHeight="1" spans="1:5">
       <c r="A16" s="12"/>
       <c r="B16" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>1484</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>1485</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>1486</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" ht="15.6" customHeight="1" spans="1:5">
       <c r="A17" s="12"/>
       <c r="B17" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>1487</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>1488</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>1489</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" ht="15.6" customHeight="1" spans="1:5">
       <c r="A18" s="12"/>
       <c r="B18" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>1490</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>1491</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" ht="15.6" customHeight="1" spans="1:5">
       <c r="A19" s="12"/>
       <c r="B19" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>1492</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>1493</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>1494</v>
       </c>
       <c r="E19" s="11"/>
     </row>
@@ -24898,10 +24864,10 @@
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>1495</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>1496</v>
       </c>
       <c r="E20" s="11"/>
     </row>
@@ -24909,49 +24875,49 @@
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="10" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>1497</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>1498</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" spans="1:5">
       <c r="A22" s="12"/>
       <c r="B22" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>1499</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>1500</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>1501</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" ht="15.6" customHeight="1" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>1502</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>1503</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>1504</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>1505</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>1506</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>1507</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -24959,51 +24925,51 @@
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="10" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>1508</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>1509</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" ht="15.6" customHeight="1" spans="1:5">
       <c r="A26" s="12"/>
       <c r="B26" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>1510</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>1511</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>1512</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" ht="15.6" customHeight="1" spans="1:5">
       <c r="A27" s="12"/>
       <c r="B27" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>1513</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>1514</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>1515</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" ht="15.6" customHeight="1" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>1516</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>1517</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>1518</v>
       </c>
       <c r="E28" s="11"/>
     </row>
@@ -25016,31 +24982,31 @@
     </row>
     <row r="30" ht="15.6" customHeight="1" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>1519</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>1520</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>1521</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" ht="15.6" customHeight="1" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>1522</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>1523</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>1524</v>
       </c>
       <c r="E31" s="11"/>
     </row>
@@ -25048,38 +25014,38 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>1525</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>1526</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" ht="15.35" customHeight="1" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>1527</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>1528</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>1529</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" ht="15.6" customHeight="1" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>1530</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>1531</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>1532</v>
       </c>
       <c r="E34" s="11"/>
     </row>
@@ -25087,10 +25053,10 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>1533</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>1534</v>
       </c>
       <c r="E35" s="11"/>
     </row>
@@ -25098,66 +25064,66 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="10" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>1535</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>1536</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" ht="15.6" customHeight="1" spans="1:5">
       <c r="A37" s="8" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>1537</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>1538</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>1539</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>1540</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" ht="15.6" customHeight="1" spans="1:5">
       <c r="A38" s="12"/>
       <c r="B38" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>1541</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>1542</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>1543</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" ht="15.35" customHeight="1" spans="1:5">
       <c r="A39" s="12"/>
       <c r="B39" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>1544</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>1545</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>1546</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" ht="15.35" customHeight="1" spans="1:5">
       <c r="A40" s="8" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>1548</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>1549</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>1550</v>
       </c>
       <c r="E40" s="11"/>
     </row>
